--- a/published-data/fonds-solidarite/fds-2021-10-20/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-10-20/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15322</v>
+        <v>15331</v>
       </c>
       <c r="D3" t="n">
         <v>3052</v>
       </c>
       <c r="E3" t="n">
-        <v>60424140</v>
+        <v>60447541</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -604,13 +604,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6223</v>
+        <v>6227</v>
       </c>
       <c r="D4" t="n">
         <v>1168</v>
       </c>
       <c r="E4" t="n">
-        <v>33969971</v>
+        <v>33984013</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="D5" t="n">
         <v>348</v>
       </c>
       <c r="E5" t="n">
-        <v>14399213</v>
+        <v>14419894</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -706,13 +706,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D6" t="n">
         <v>160</v>
       </c>
       <c r="E6" t="n">
-        <v>13885731</v>
+        <v>13892141</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -859,13 +859,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2963</v>
+        <v>2968</v>
       </c>
       <c r="D9" t="n">
         <v>733</v>
       </c>
       <c r="E9" t="n">
-        <v>7360290</v>
+        <v>7362977</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3094</v>
+        <v>3095</v>
       </c>
       <c r="D10" t="n">
         <v>594</v>
       </c>
       <c r="E10" t="n">
-        <v>9514728</v>
+        <v>9515301</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -961,13 +961,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9349</v>
+        <v>9352</v>
       </c>
       <c r="D11" t="n">
         <v>1870</v>
       </c>
       <c r="E11" t="n">
-        <v>34764424</v>
+        <v>34805378</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1063,13 +1063,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D13" t="n">
         <v>174</v>
       </c>
       <c r="E13" t="n">
-        <v>6310279</v>
+        <v>6312730</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5055</v>
+        <v>5056</v>
       </c>
       <c r="D17" t="n">
         <v>1239</v>
       </c>
       <c r="E17" t="n">
-        <v>8587810</v>
+        <v>8588008</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1318,13 +1318,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7500</v>
+        <v>7502</v>
       </c>
       <c r="D18" t="n">
         <v>1194</v>
       </c>
       <c r="E18" t="n">
-        <v>29290964</v>
+        <v>29293925</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>11346</v>
+        <v>11353</v>
       </c>
       <c r="D19" t="n">
         <v>2139</v>
       </c>
       <c r="E19" t="n">
-        <v>49387816</v>
+        <v>49396128</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1420,13 +1420,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3181</v>
+        <v>3183</v>
       </c>
       <c r="D20" t="n">
         <v>672</v>
       </c>
       <c r="E20" t="n">
-        <v>17229954</v>
+        <v>17233123</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1471,13 +1471,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D21" t="n">
         <v>162</v>
       </c>
       <c r="E21" t="n">
-        <v>6444776</v>
+        <v>6452437</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1573,13 +1573,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="n">
-        <v>4725733</v>
+        <v>4745446</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1777,13 +1777,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5344</v>
+        <v>5345</v>
       </c>
       <c r="D27" t="n">
         <v>1034</v>
       </c>
       <c r="E27" t="n">
-        <v>21837966</v>
+        <v>21839573</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1828,13 +1828,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1575</v>
+        <v>1579</v>
       </c>
       <c r="D28" t="n">
         <v>307</v>
       </c>
       <c r="E28" t="n">
-        <v>8490548</v>
+        <v>8503718</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D29" t="n">
         <v>101</v>
       </c>
       <c r="E29" t="n">
-        <v>3411271</v>
+        <v>3418605</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1930,13 +1930,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D30" t="n">
         <v>37</v>
       </c>
       <c r="E30" t="n">
-        <v>2753419</v>
+        <v>2757540</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -2083,13 +2083,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>8244</v>
+        <v>8247</v>
       </c>
       <c r="D33" t="n">
         <v>1542</v>
       </c>
       <c r="E33" t="n">
-        <v>26377131</v>
+        <v>26381035</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2134,13 +2134,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>16931</v>
+        <v>16935</v>
       </c>
       <c r="D34" t="n">
         <v>3371</v>
       </c>
       <c r="E34" t="n">
-        <v>67915639</v>
+        <v>67929165</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2185,13 +2185,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5906</v>
+        <v>5908</v>
       </c>
       <c r="D35" t="n">
         <v>1170</v>
       </c>
       <c r="E35" t="n">
-        <v>31524019</v>
+        <v>31525815</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D37" t="n">
         <v>160</v>
       </c>
       <c r="E37" t="n">
-        <v>11032803</v>
+        <v>11036105</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2491,13 +2491,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5695</v>
+        <v>5696</v>
       </c>
       <c r="D41" t="n">
         <v>1190</v>
       </c>
       <c r="E41" t="n">
-        <v>9998184</v>
+        <v>10001245</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2644,13 +2644,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="D44" t="n">
         <v>449</v>
       </c>
       <c r="E44" t="n">
-        <v>11467015</v>
+        <v>11467922</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2899,13 +2899,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>12073</v>
+        <v>12078</v>
       </c>
       <c r="D49" t="n">
         <v>2188</v>
       </c>
       <c r="E49" t="n">
-        <v>45693401</v>
+        <v>45703836</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>27646</v>
+        <v>27668</v>
       </c>
       <c r="D50" t="n">
         <v>5065</v>
       </c>
       <c r="E50" t="n">
-        <v>130645545</v>
+        <v>130740194</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3001,13 +3001,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>14493</v>
+        <v>14510</v>
       </c>
       <c r="D51" t="n">
         <v>2381</v>
       </c>
       <c r="E51" t="n">
-        <v>98318390</v>
+        <v>98385735</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6570</v>
+        <v>6575</v>
       </c>
       <c r="D52" t="n">
         <v>1006</v>
       </c>
       <c r="E52" t="n">
-        <v>66979447</v>
+        <v>67118093</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3103,13 +3103,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3938</v>
+        <v>3948</v>
       </c>
       <c r="D53" t="n">
         <v>593</v>
       </c>
       <c r="E53" t="n">
-        <v>72596774</v>
+        <v>72687869</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3154,13 +3154,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1406</v>
+        <v>1410</v>
       </c>
       <c r="D54" t="n">
         <v>225</v>
       </c>
       <c r="E54" t="n">
-        <v>57056639</v>
+        <v>57275561</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3205,13 +3205,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D55" t="n">
         <v>34</v>
       </c>
       <c r="E55" t="n">
-        <v>18736605</v>
+        <v>19117792</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3409,13 +3409,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>15036</v>
+        <v>15040</v>
       </c>
       <c r="D59" t="n">
         <v>2636</v>
       </c>
       <c r="E59" t="n">
-        <v>37356361</v>
+        <v>37360296</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3460,13 +3460,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>14489</v>
+        <v>14498</v>
       </c>
       <c r="D60" t="n">
         <v>2909</v>
       </c>
       <c r="E60" t="n">
-        <v>44711750</v>
+        <v>44717307</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3511,13 +3511,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>35634</v>
+        <v>35651</v>
       </c>
       <c r="D61" t="n">
         <v>7000</v>
       </c>
       <c r="E61" t="n">
-        <v>146508506</v>
+        <v>146556060</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3562,13 +3562,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>14505</v>
+        <v>14520</v>
       </c>
       <c r="D62" t="n">
         <v>2711</v>
       </c>
       <c r="E62" t="n">
-        <v>87365383</v>
+        <v>87417612</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3613,13 +3613,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5205</v>
+        <v>5215</v>
       </c>
       <c r="D63" t="n">
         <v>905</v>
       </c>
       <c r="E63" t="n">
-        <v>44720734</v>
+        <v>44764425</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3715,13 +3715,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D65" t="n">
         <v>139</v>
       </c>
       <c r="E65" t="n">
-        <v>33032646</v>
+        <v>33038782</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3766,13 +3766,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D66" t="n">
         <v>28</v>
       </c>
       <c r="E66" t="n">
-        <v>9753990</v>
+        <v>9808604</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3919,13 +3919,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>13736</v>
+        <v>13737</v>
       </c>
       <c r="D69" t="n">
         <v>2741</v>
       </c>
       <c r="E69" t="n">
-        <v>31627698</v>
+        <v>31628464</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3970,13 +3970,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>7725</v>
+        <v>7732</v>
       </c>
       <c r="D70" t="n">
         <v>1549</v>
       </c>
       <c r="E70" t="n">
-        <v>22703640</v>
+        <v>22757179</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -4021,13 +4021,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>20118</v>
+        <v>20125</v>
       </c>
       <c r="D71" t="n">
         <v>4048</v>
       </c>
       <c r="E71" t="n">
-        <v>77200005</v>
+        <v>77216364</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -4072,13 +4072,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>7158</v>
+        <v>7166</v>
       </c>
       <c r="D72" t="n">
         <v>1511</v>
       </c>
       <c r="E72" t="n">
-        <v>37291729</v>
+        <v>37338183</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -4123,13 +4123,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2321</v>
+        <v>2326</v>
       </c>
       <c r="D73" t="n">
         <v>474</v>
       </c>
       <c r="E73" t="n">
-        <v>17760543</v>
+        <v>17793207</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -4174,13 +4174,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="D74" t="n">
         <v>225</v>
       </c>
       <c r="E74" t="n">
-        <v>15390788</v>
+        <v>15394536</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -4378,13 +4378,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>7506</v>
+        <v>7510</v>
       </c>
       <c r="D78" t="n">
         <v>1613</v>
       </c>
       <c r="E78" t="n">
-        <v>14034524</v>
+        <v>14035358</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -4429,13 +4429,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6824</v>
+        <v>6827</v>
       </c>
       <c r="D79" t="n">
         <v>1285</v>
       </c>
       <c r="E79" t="n">
-        <v>20758534</v>
+        <v>20763955</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -4480,13 +4480,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>18432</v>
+        <v>18443</v>
       </c>
       <c r="D80" t="n">
         <v>3517</v>
       </c>
       <c r="E80" t="n">
-        <v>73148561</v>
+        <v>73162303</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -4531,13 +4531,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>7324</v>
+        <v>7328</v>
       </c>
       <c r="D81" t="n">
         <v>1395</v>
       </c>
       <c r="E81" t="n">
-        <v>42997668</v>
+        <v>43029630</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4582,13 +4582,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2492</v>
+        <v>2495</v>
       </c>
       <c r="D82" t="n">
         <v>459</v>
       </c>
       <c r="E82" t="n">
-        <v>19380487</v>
+        <v>19390068</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -4633,13 +4633,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D83" t="n">
         <v>222</v>
       </c>
       <c r="E83" t="n">
-        <v>19994077</v>
+        <v>20000022</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -4837,13 +4837,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6931</v>
+        <v>6934</v>
       </c>
       <c r="D87" t="n">
         <v>1449</v>
       </c>
       <c r="E87" t="n">
-        <v>13858777</v>
+        <v>13862538</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -4888,13 +4888,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>22804</v>
+        <v>22816</v>
       </c>
       <c r="D88" t="n">
         <v>4521</v>
       </c>
       <c r="E88" t="n">
-        <v>67313482</v>
+        <v>67331926</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -4939,13 +4939,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>58163</v>
+        <v>58192</v>
       </c>
       <c r="D89" t="n">
         <v>11361</v>
       </c>
       <c r="E89" t="n">
-        <v>231747005</v>
+        <v>231802239</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4990,13 +4990,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>24339</v>
+        <v>24350</v>
       </c>
       <c r="D90" t="n">
         <v>4499</v>
       </c>
       <c r="E90" t="n">
-        <v>144393230</v>
+        <v>144423738</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -5041,13 +5041,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>9361</v>
+        <v>9366</v>
       </c>
       <c r="D91" t="n">
         <v>1566</v>
       </c>
       <c r="E91" t="n">
-        <v>82306613</v>
+        <v>82329819</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -5092,13 +5092,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4747</v>
+        <v>4757</v>
       </c>
       <c r="D92" t="n">
         <v>746</v>
       </c>
       <c r="E92" t="n">
-        <v>83476093</v>
+        <v>83636275</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -5194,13 +5194,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D94" t="n">
         <v>36</v>
       </c>
       <c r="E94" t="n">
-        <v>18356897</v>
+        <v>18383426</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -5449,13 +5449,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>16861</v>
+        <v>16869</v>
       </c>
       <c r="D99" t="n">
         <v>3516</v>
       </c>
       <c r="E99" t="n">
-        <v>35095458</v>
+        <v>35099898</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -5500,13 +5500,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>8857</v>
+        <v>8868</v>
       </c>
       <c r="D100" t="n">
         <v>1559</v>
       </c>
       <c r="E100" t="n">
-        <v>32610150</v>
+        <v>32709956</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -5551,13 +5551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>21875</v>
+        <v>21894</v>
       </c>
       <c r="D101" t="n">
         <v>3609</v>
       </c>
       <c r="E101" t="n">
-        <v>108729009</v>
+        <v>108807079</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -5602,13 +5602,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>12706</v>
+        <v>12712</v>
       </c>
       <c r="D102" t="n">
         <v>1858</v>
       </c>
       <c r="E102" t="n">
-        <v>94348606</v>
+        <v>94367945</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -5653,13 +5653,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>6255</v>
+        <v>6261</v>
       </c>
       <c r="D103" t="n">
         <v>935</v>
       </c>
       <c r="E103" t="n">
-        <v>71691272</v>
+        <v>71731699</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -5704,13 +5704,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>3662</v>
+        <v>3667</v>
       </c>
       <c r="D104" t="n">
         <v>560</v>
       </c>
       <c r="E104" t="n">
-        <v>79026980</v>
+        <v>79181293</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -5755,13 +5755,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D105" t="n">
         <v>207</v>
       </c>
       <c r="E105" t="n">
-        <v>60208782</v>
+        <v>60239264</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -5959,13 +5959,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>23963</v>
+        <v>23978</v>
       </c>
       <c r="D109" t="n">
         <v>3211</v>
       </c>
       <c r="E109" t="n">
-        <v>71291686</v>
+        <v>71331314</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -6010,13 +6010,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>4893</v>
+        <v>4894</v>
       </c>
       <c r="D110" t="n">
         <v>981</v>
       </c>
       <c r="E110" t="n">
-        <v>16050645</v>
+        <v>16051883</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -6061,13 +6061,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>13164</v>
+        <v>13171</v>
       </c>
       <c r="D111" t="n">
         <v>2598</v>
       </c>
       <c r="E111" t="n">
-        <v>57401978</v>
+        <v>57425333</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -6112,13 +6112,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>5658</v>
+        <v>5659</v>
       </c>
       <c r="D112" t="n">
         <v>1073</v>
       </c>
       <c r="E112" t="n">
-        <v>34761631</v>
+        <v>34762729</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -6163,13 +6163,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="D113" t="n">
         <v>363</v>
       </c>
       <c r="E113" t="n">
-        <v>21199774</v>
+        <v>21201886</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -6214,13 +6214,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D114" t="n">
         <v>189</v>
       </c>
       <c r="E114" t="n">
-        <v>20864414</v>
+        <v>20867369</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -6265,13 +6265,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D115" t="n">
         <v>70</v>
       </c>
       <c r="E115" t="n">
-        <v>14196349</v>
+        <v>14477522</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -6367,13 +6367,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>4424</v>
+        <v>4426</v>
       </c>
       <c r="D117" t="n">
         <v>993</v>
       </c>
       <c r="E117" t="n">
-        <v>9399029</v>
+        <v>9399393</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -6418,13 +6418,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>4451</v>
+        <v>4455</v>
       </c>
       <c r="D118" t="n">
         <v>836</v>
       </c>
       <c r="E118" t="n">
-        <v>14304384</v>
+        <v>14306884</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -6469,13 +6469,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>11546</v>
+        <v>11553</v>
       </c>
       <c r="D119" t="n">
         <v>2358</v>
       </c>
       <c r="E119" t="n">
-        <v>45669219</v>
+        <v>45673341</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -6520,13 +6520,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>4948</v>
+        <v>4950</v>
       </c>
       <c r="D120" t="n">
         <v>893</v>
       </c>
       <c r="E120" t="n">
-        <v>28197985</v>
+        <v>28201289</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -6571,13 +6571,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="D121" t="n">
         <v>331</v>
       </c>
       <c r="E121" t="n">
-        <v>14409636</v>
+        <v>14418652</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -6622,13 +6622,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="D122" t="n">
         <v>146</v>
       </c>
       <c r="E122" t="n">
-        <v>10342718</v>
+        <v>10369145</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -6724,13 +6724,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D124" t="n">
         <v>5</v>
       </c>
       <c r="E124" t="n">
-        <v>698156</v>
+        <v>722914</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -6826,13 +6826,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="D126" t="n">
         <v>336</v>
       </c>
       <c r="E126" t="n">
-        <v>4467748</v>
+        <v>4469345</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -6877,13 +6877,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>4340</v>
+        <v>4341</v>
       </c>
       <c r="D127" t="n">
         <v>937</v>
       </c>
       <c r="E127" t="n">
-        <v>16783536</v>
+        <v>16785414</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -6979,13 +6979,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D129" t="n">
         <v>119</v>
       </c>
       <c r="E129" t="n">
-        <v>3463624</v>
+        <v>3468716</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -7234,13 +7234,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>7150</v>
+        <v>7153</v>
       </c>
       <c r="D134" t="n">
         <v>1402</v>
       </c>
       <c r="E134" t="n">
-        <v>29484970</v>
+        <v>29491643</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -7285,13 +7285,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>2491</v>
+        <v>2492</v>
       </c>
       <c r="D135" t="n">
         <v>509</v>
       </c>
       <c r="E135" t="n">
-        <v>15020498</v>
+        <v>15021269</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D137" t="n">
         <v>74</v>
       </c>
       <c r="E137" t="n">
-        <v>6277044</v>
+        <v>6279044</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -7642,13 +7642,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>4997</v>
+        <v>4998</v>
       </c>
       <c r="D142" t="n">
         <v>1014</v>
       </c>
       <c r="E142" t="n">
-        <v>20335710</v>
+        <v>20336586</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -7693,13 +7693,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1669</v>
+        <v>1672</v>
       </c>
       <c r="D143" t="n">
         <v>355</v>
       </c>
       <c r="E143" t="n">
-        <v>8797967</v>
+        <v>8816726</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -7795,13 +7795,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D145" t="n">
         <v>47</v>
       </c>
       <c r="E145" t="n">
-        <v>3053983</v>
+        <v>3058623</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -7897,13 +7897,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="D147" t="n">
         <v>434</v>
       </c>
       <c r="E147" t="n">
-        <v>4087982</v>
+        <v>4089096</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -7948,13 +7948,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>5307</v>
+        <v>5311</v>
       </c>
       <c r="D148" t="n">
         <v>992</v>
       </c>
       <c r="E148" t="n">
-        <v>17730084</v>
+        <v>17733538</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -7999,13 +7999,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>15261</v>
+        <v>15267</v>
       </c>
       <c r="D149" t="n">
         <v>2995</v>
       </c>
       <c r="E149" t="n">
-        <v>62215155</v>
+        <v>62221935</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -8152,13 +8152,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="D152" t="n">
         <v>145</v>
       </c>
       <c r="E152" t="n">
-        <v>13355542</v>
+        <v>13376049</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -8305,13 +8305,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>5862</v>
+        <v>5865</v>
       </c>
       <c r="D155" t="n">
         <v>1290</v>
       </c>
       <c r="E155" t="n">
-        <v>12291758</v>
+        <v>12292960</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -8356,13 +8356,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D156" t="n">
         <v>206</v>
       </c>
       <c r="E156" t="n">
-        <v>2820523</v>
+        <v>2821866</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -8407,13 +8407,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>3046</v>
+        <v>3048</v>
       </c>
       <c r="D157" t="n">
         <v>579</v>
       </c>
       <c r="E157" t="n">
-        <v>12466676</v>
+        <v>12470857</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -8509,13 +8509,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D159" t="n">
         <v>72</v>
       </c>
       <c r="E159" t="n">
-        <v>3493932</v>
+        <v>3500576</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -8713,13 +8713,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="D163" t="n">
         <v>564</v>
       </c>
       <c r="E163" t="n">
-        <v>9149201</v>
+        <v>9151373</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -8764,13 +8764,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>8218</v>
+        <v>8225</v>
       </c>
       <c r="D164" t="n">
         <v>1710</v>
       </c>
       <c r="E164" t="n">
-        <v>33264412</v>
+        <v>33271992</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -8815,13 +8815,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>2796</v>
+        <v>2798</v>
       </c>
       <c r="D165" t="n">
         <v>569</v>
       </c>
       <c r="E165" t="n">
-        <v>16777323</v>
+        <v>16781527</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -8866,13 +8866,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D166" t="n">
         <v>196</v>
       </c>
       <c r="E166" t="n">
-        <v>6641927</v>
+        <v>6646152</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -8968,13 +8968,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D168" t="n">
         <v>29</v>
       </c>
       <c r="E168" t="n">
-        <v>6208379</v>
+        <v>6280330</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -9121,13 +9121,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>7122</v>
+        <v>7125</v>
       </c>
       <c r="D171" t="n">
         <v>1268</v>
       </c>
       <c r="E171" t="n">
-        <v>27107419</v>
+        <v>27109201</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -9172,13 +9172,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>16157</v>
+        <v>16163</v>
       </c>
       <c r="D172" t="n">
         <v>3131</v>
       </c>
       <c r="E172" t="n">
-        <v>69699018</v>
+        <v>69703941</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -9223,13 +9223,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>5417</v>
+        <v>5421</v>
       </c>
       <c r="D173" t="n">
         <v>1048</v>
       </c>
       <c r="E173" t="n">
-        <v>32305250</v>
+        <v>32312005</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -9274,13 +9274,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="D174" t="n">
         <v>350</v>
       </c>
       <c r="E174" t="n">
-        <v>13150293</v>
+        <v>13154479</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -9325,13 +9325,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D175" t="n">
         <v>115</v>
       </c>
       <c r="E175" t="n">
-        <v>11409763</v>
+        <v>11414339</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -9376,13 +9376,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D176" t="n">
         <v>46</v>
       </c>
       <c r="E176" t="n">
-        <v>9540122</v>
+        <v>9554790</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -9478,13 +9478,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>5241</v>
+        <v>5242</v>
       </c>
       <c r="D178" t="n">
         <v>1197</v>
       </c>
       <c r="E178" t="n">
-        <v>10275094</v>
+        <v>10275333</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -9529,13 +9529,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>9295</v>
+        <v>9297</v>
       </c>
       <c r="D179" t="n">
         <v>1755</v>
       </c>
       <c r="E179" t="n">
-        <v>34342999</v>
+        <v>34345141</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -9580,13 +9580,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>22422</v>
+        <v>22432</v>
       </c>
       <c r="D180" t="n">
         <v>4281</v>
       </c>
       <c r="E180" t="n">
-        <v>99064724</v>
+        <v>99076101</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -9631,13 +9631,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>9270</v>
+        <v>9276</v>
       </c>
       <c r="D181" t="n">
         <v>1774</v>
       </c>
       <c r="E181" t="n">
-        <v>56379641</v>
+        <v>56391432</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -9682,13 +9682,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>3039</v>
+        <v>3043</v>
       </c>
       <c r="D182" t="n">
         <v>557</v>
       </c>
       <c r="E182" t="n">
-        <v>26628606</v>
+        <v>26665250</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -9733,13 +9733,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="D183" t="n">
         <v>258</v>
       </c>
       <c r="E183" t="n">
-        <v>20268221</v>
+        <v>20272067</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -9784,13 +9784,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D184" t="n">
         <v>91</v>
       </c>
       <c r="E184" t="n">
-        <v>19480271</v>
+        <v>19486044</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -9937,13 +9937,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>6695</v>
+        <v>6697</v>
       </c>
       <c r="D187" t="n">
         <v>1532</v>
       </c>
       <c r="E187" t="n">
-        <v>13157030</v>
+        <v>13158007</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -9988,13 +9988,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>8917</v>
+        <v>8921</v>
       </c>
       <c r="D188" t="n">
         <v>1669</v>
       </c>
       <c r="E188" t="n">
-        <v>30579594</v>
+        <v>30582059</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -10039,13 +10039,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>25267</v>
+        <v>25286</v>
       </c>
       <c r="D189" t="n">
         <v>4887</v>
       </c>
       <c r="E189" t="n">
-        <v>109769467</v>
+        <v>109800280</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -10090,13 +10090,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>10635</v>
+        <v>10645</v>
       </c>
       <c r="D190" t="n">
         <v>2052</v>
       </c>
       <c r="E190" t="n">
-        <v>64807413</v>
+        <v>64846725</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -10141,13 +10141,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>4378</v>
+        <v>4384</v>
       </c>
       <c r="D191" t="n">
         <v>786</v>
       </c>
       <c r="E191" t="n">
-        <v>39412710</v>
+        <v>39447265</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -10192,13 +10192,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>2389</v>
+        <v>2398</v>
       </c>
       <c r="D192" t="n">
         <v>408</v>
       </c>
       <c r="E192" t="n">
-        <v>35836638</v>
+        <v>35920500</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -10447,13 +10447,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>6826</v>
+        <v>6828</v>
       </c>
       <c r="D197" t="n">
         <v>1507</v>
       </c>
       <c r="E197" t="n">
-        <v>14371544</v>
+        <v>14373699</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -10498,13 +10498,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>10183</v>
+        <v>10184</v>
       </c>
       <c r="D198" t="n">
         <v>1805</v>
       </c>
       <c r="E198" t="n">
-        <v>39895225</v>
+        <v>39898139</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -10549,13 +10549,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>21263</v>
+        <v>21281</v>
       </c>
       <c r="D199" t="n">
         <v>4154</v>
       </c>
       <c r="E199" t="n">
-        <v>94778325</v>
+        <v>94798939</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -10600,13 +10600,13 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>8287</v>
+        <v>8293</v>
       </c>
       <c r="D200" t="n">
         <v>1608</v>
       </c>
       <c r="E200" t="n">
-        <v>49313510</v>
+        <v>49326799</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -10651,13 +10651,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="D201" t="n">
         <v>542</v>
       </c>
       <c r="E201" t="n">
-        <v>23915774</v>
+        <v>23923579</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -10702,13 +10702,13 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="D202" t="n">
         <v>204</v>
       </c>
       <c r="E202" t="n">
-        <v>18034326</v>
+        <v>18042723</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -10855,13 +10855,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>6496</v>
+        <v>6501</v>
       </c>
       <c r="D205" t="n">
         <v>1417</v>
       </c>
       <c r="E205" t="n">
-        <v>13573458</v>
+        <v>13575134</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -10906,13 +10906,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="D206" t="n">
         <v>420</v>
       </c>
       <c r="E206" t="n">
-        <v>7362086</v>
+        <v>7362965</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -10957,13 +10957,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>6386</v>
+        <v>6393</v>
       </c>
       <c r="D207" t="n">
         <v>1329</v>
       </c>
       <c r="E207" t="n">
-        <v>25399135</v>
+        <v>25407420</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -11212,13 +11212,13 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="D212" t="n">
         <v>596</v>
       </c>
       <c r="E212" t="n">
-        <v>4940554</v>
+        <v>4940656</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -11263,13 +11263,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>2671</v>
+        <v>2673</v>
       </c>
       <c r="D213" t="n">
         <v>570</v>
       </c>
       <c r="E213" t="n">
-        <v>7660656</v>
+        <v>7662115</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -11314,13 +11314,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>8443</v>
+        <v>8450</v>
       </c>
       <c r="D214" t="n">
         <v>1795</v>
       </c>
       <c r="E214" t="n">
-        <v>31315265</v>
+        <v>31326656</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -11365,13 +11365,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>3177</v>
+        <v>3180</v>
       </c>
       <c r="D215" t="n">
         <v>694</v>
       </c>
       <c r="E215" t="n">
-        <v>16951631</v>
+        <v>16955298</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -11518,13 +11518,13 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D218" t="n">
         <v>27</v>
       </c>
       <c r="E218" t="n">
-        <v>4763390</v>
+        <v>4792000</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -11620,13 +11620,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>2370</v>
+        <v>2373</v>
       </c>
       <c r="D220" t="n">
         <v>540</v>
       </c>
       <c r="E220" t="n">
-        <v>4572694</v>
+        <v>4573371</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -11671,13 +11671,13 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="D221" t="n">
         <v>285</v>
       </c>
       <c r="E221" t="n">
-        <v>4795060</v>
+        <v>4795633</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -11722,13 +11722,13 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>4856</v>
+        <v>4857</v>
       </c>
       <c r="D222" t="n">
         <v>974</v>
       </c>
       <c r="E222" t="n">
-        <v>18042369</v>
+        <v>18042558</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -11773,13 +11773,13 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c r="D223" t="n">
         <v>408</v>
       </c>
       <c r="E223" t="n">
-        <v>10312808</v>
+        <v>10328097</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -11824,13 +11824,13 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D224" t="n">
         <v>123</v>
       </c>
       <c r="E224" t="n">
-        <v>3344699</v>
+        <v>3347063</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -12028,13 +12028,13 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>2085</v>
+        <v>2087</v>
       </c>
       <c r="D228" t="n">
         <v>413</v>
       </c>
       <c r="E228" t="n">
-        <v>3706433</v>
+        <v>3706956</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -12079,13 +12079,13 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>5749</v>
+        <v>5751</v>
       </c>
       <c r="D229" t="n">
         <v>1080</v>
       </c>
       <c r="E229" t="n">
-        <v>19400085</v>
+        <v>19404303</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -12130,13 +12130,13 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>15135</v>
+        <v>15145</v>
       </c>
       <c r="D230" t="n">
         <v>3039</v>
       </c>
       <c r="E230" t="n">
-        <v>63237357</v>
+        <v>63258732</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -12181,13 +12181,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>6284</v>
+        <v>6288</v>
       </c>
       <c r="D231" t="n">
         <v>1189</v>
       </c>
       <c r="E231" t="n">
-        <v>36013809</v>
+        <v>36048818</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -12283,13 +12283,13 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D233" t="n">
         <v>176</v>
       </c>
       <c r="E233" t="n">
-        <v>19094613</v>
+        <v>19100661</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -12436,13 +12436,13 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>4724</v>
+        <v>4726</v>
       </c>
       <c r="D236" t="n">
         <v>1017</v>
       </c>
       <c r="E236" t="n">
-        <v>10044585</v>
+        <v>10045843</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -12487,13 +12487,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>4368</v>
+        <v>4369</v>
       </c>
       <c r="D237" t="n">
         <v>931</v>
       </c>
       <c r="E237" t="n">
-        <v>13323421</v>
+        <v>13324307</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -12538,13 +12538,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>13675</v>
+        <v>13681</v>
       </c>
       <c r="D238" t="n">
         <v>2900</v>
       </c>
       <c r="E238" t="n">
-        <v>51914894</v>
+        <v>51923701</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -12589,13 +12589,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>6082</v>
+        <v>6084</v>
       </c>
       <c r="D239" t="n">
         <v>1217</v>
       </c>
       <c r="E239" t="n">
-        <v>34778581</v>
+        <v>34783259</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -12691,13 +12691,13 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="D241" t="n">
         <v>182</v>
       </c>
       <c r="E241" t="n">
-        <v>16202816</v>
+        <v>16208501</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -12742,13 +12742,13 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D242" t="n">
         <v>55</v>
       </c>
       <c r="E242" t="n">
-        <v>9616683</v>
+        <v>9733494</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -12793,13 +12793,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>4108</v>
+        <v>4109</v>
       </c>
       <c r="D243" t="n">
         <v>903</v>
       </c>
       <c r="E243" t="n">
-        <v>7997628</v>
+        <v>7998105</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -12844,13 +12844,13 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>2651</v>
+        <v>2654</v>
       </c>
       <c r="D244" t="n">
         <v>512</v>
       </c>
       <c r="E244" t="n">
-        <v>9109732</v>
+        <v>9113232</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -12895,13 +12895,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>8082</v>
+        <v>8087</v>
       </c>
       <c r="D245" t="n">
         <v>1682</v>
       </c>
       <c r="E245" t="n">
-        <v>32680490</v>
+        <v>32690394</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -12946,13 +12946,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>3024</v>
+        <v>3026</v>
       </c>
       <c r="D246" t="n">
         <v>641</v>
       </c>
       <c r="E246" t="n">
-        <v>16706925</v>
+        <v>16711336</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -12997,13 +12997,13 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D247" t="n">
         <v>173</v>
       </c>
       <c r="E247" t="n">
-        <v>5272998</v>
+        <v>5275357</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -13048,13 +13048,13 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D248" t="n">
         <v>91</v>
       </c>
       <c r="E248" t="n">
-        <v>7465586</v>
+        <v>7496651</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -13201,13 +13201,13 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>2394</v>
+        <v>2396</v>
       </c>
       <c r="D251" t="n">
         <v>544</v>
       </c>
       <c r="E251" t="n">
-        <v>4997292</v>
+        <v>4997558</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -13252,13 +13252,13 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>3057</v>
+        <v>3059</v>
       </c>
       <c r="D252" t="n">
         <v>485</v>
       </c>
       <c r="E252" t="n">
-        <v>10652699</v>
+        <v>10655008</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -13354,13 +13354,13 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>6831</v>
+        <v>6832</v>
       </c>
       <c r="D254" t="n">
         <v>1049</v>
       </c>
       <c r="E254" t="n">
-        <v>41886286</v>
+        <v>41889016</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -13609,13 +13609,13 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="D259" t="n">
         <v>531</v>
       </c>
       <c r="E259" t="n">
-        <v>4578296</v>
+        <v>4578916</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -13660,13 +13660,13 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>7455</v>
+        <v>7459</v>
       </c>
       <c r="D260" t="n">
         <v>1049</v>
       </c>
       <c r="E260" t="n">
-        <v>31858587</v>
+        <v>31865896</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -13711,13 +13711,13 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>11767</v>
+        <v>11770</v>
       </c>
       <c r="D261" t="n">
         <v>1965</v>
       </c>
       <c r="E261" t="n">
-        <v>50395119</v>
+        <v>50399982</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -13762,13 +13762,13 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>4030</v>
+        <v>4031</v>
       </c>
       <c r="D262" t="n">
         <v>721</v>
       </c>
       <c r="E262" t="n">
-        <v>24012890</v>
+        <v>24024628</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -13864,13 +13864,13 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D264" t="n">
         <v>102</v>
       </c>
       <c r="E264" t="n">
-        <v>9153698</v>
+        <v>9292664</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -13966,13 +13966,13 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>4053</v>
+        <v>4055</v>
       </c>
       <c r="D266" t="n">
         <v>719</v>
       </c>
       <c r="E266" t="n">
-        <v>7522978</v>
+        <v>7524953</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -14068,13 +14068,13 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>5757</v>
+        <v>5758</v>
       </c>
       <c r="D268" t="n">
         <v>1187</v>
       </c>
       <c r="E268" t="n">
-        <v>20408330</v>
+        <v>20408631</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -14119,13 +14119,13 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D269" t="n">
         <v>434</v>
       </c>
       <c r="E269" t="n">
-        <v>10011444</v>
+        <v>10012729</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -14323,13 +14323,13 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="D273" t="n">
         <v>471</v>
       </c>
       <c r="E273" t="n">
-        <v>4413315</v>
+        <v>4413699</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -14425,13 +14425,13 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>8921</v>
+        <v>8930</v>
       </c>
       <c r="D275" t="n">
         <v>1836</v>
       </c>
       <c r="E275" t="n">
-        <v>44514166</v>
+        <v>44583706</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -14476,13 +14476,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="D276" t="n">
         <v>674</v>
       </c>
       <c r="E276" t="n">
-        <v>22765684</v>
+        <v>22769015</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -14527,13 +14527,13 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D277" t="n">
         <v>208</v>
       </c>
       <c r="E277" t="n">
-        <v>7937271</v>
+        <v>7955528</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -14578,13 +14578,13 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D278" t="n">
         <v>91</v>
       </c>
       <c r="E278" t="n">
-        <v>9138449</v>
+        <v>9154821</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -14680,13 +14680,13 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>4412</v>
+        <v>4415</v>
       </c>
       <c r="D280" t="n">
         <v>1053</v>
       </c>
       <c r="E280" t="n">
-        <v>16222760</v>
+        <v>16228190</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -14731,13 +14731,13 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>11316</v>
+        <v>11321</v>
       </c>
       <c r="D281" t="n">
         <v>2131</v>
       </c>
       <c r="E281" t="n">
-        <v>36451578</v>
+        <v>36456725</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -14782,13 +14782,13 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>33464</v>
+        <v>33473</v>
       </c>
       <c r="D282" t="n">
         <v>6776</v>
       </c>
       <c r="E282" t="n">
-        <v>130032118</v>
+        <v>130055129</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -14833,13 +14833,13 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>15071</v>
+        <v>15089</v>
       </c>
       <c r="D283" t="n">
         <v>2810</v>
       </c>
       <c r="E283" t="n">
-        <v>85717324</v>
+        <v>85748590</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -14884,13 +14884,13 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>6645</v>
+        <v>6650</v>
       </c>
       <c r="D284" t="n">
         <v>1071</v>
       </c>
       <c r="E284" t="n">
-        <v>54256638</v>
+        <v>54269150</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -14935,13 +14935,13 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>3431</v>
+        <v>3441</v>
       </c>
       <c r="D285" t="n">
         <v>506</v>
       </c>
       <c r="E285" t="n">
-        <v>53754283</v>
+        <v>53870438</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -14986,13 +14986,13 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="D286" t="n">
         <v>186</v>
       </c>
       <c r="E286" t="n">
-        <v>46919579</v>
+        <v>47122221</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -15139,13 +15139,13 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>9956</v>
+        <v>9959</v>
       </c>
       <c r="D289" t="n">
         <v>2028</v>
       </c>
       <c r="E289" t="n">
-        <v>19828907</v>
+        <v>19829857</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -15190,13 +15190,13 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D290" t="n">
         <v>255</v>
       </c>
       <c r="E290" t="n">
-        <v>3306619</v>
+        <v>3307302</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -15292,13 +15292,13 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D292" t="n">
         <v>260</v>
       </c>
       <c r="E292" t="n">
-        <v>6306003</v>
+        <v>6308143</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -15598,13 +15598,13 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>21262</v>
+        <v>21273</v>
       </c>
       <c r="D298" t="n">
         <v>4189</v>
       </c>
       <c r="E298" t="n">
-        <v>89712627</v>
+        <v>89728386</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -15649,13 +15649,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>10046</v>
+        <v>10052</v>
       </c>
       <c r="D299" t="n">
         <v>1862</v>
       </c>
       <c r="E299" t="n">
-        <v>57649752</v>
+        <v>57666367</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -15700,13 +15700,13 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>3700</v>
+        <v>3704</v>
       </c>
       <c r="D300" t="n">
         <v>617</v>
       </c>
       <c r="E300" t="n">
-        <v>30644633</v>
+        <v>30663470</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -15751,13 +15751,13 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="D301" t="n">
         <v>317</v>
       </c>
       <c r="E301" t="n">
-        <v>35753444</v>
+        <v>35755896</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -15802,13 +15802,13 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="D302" t="n">
         <v>113</v>
       </c>
       <c r="E302" t="n">
-        <v>28048626</v>
+        <v>28162331</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -15955,13 +15955,13 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>5095</v>
+        <v>5100</v>
       </c>
       <c r="D305" t="n">
         <v>1136</v>
       </c>
       <c r="E305" t="n">
-        <v>9993967</v>
+        <v>9997129</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -16006,13 +16006,13 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>6260</v>
+        <v>6262</v>
       </c>
       <c r="D306" t="n">
         <v>1430</v>
       </c>
       <c r="E306" t="n">
-        <v>26237295</v>
+        <v>26238954</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -16057,13 +16057,13 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>19541</v>
+        <v>19552</v>
       </c>
       <c r="D307" t="n">
         <v>4282</v>
       </c>
       <c r="E307" t="n">
-        <v>105229042</v>
+        <v>105245237</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -16108,13 +16108,13 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>7694</v>
+        <v>7702</v>
       </c>
       <c r="D308" t="n">
         <v>1659</v>
       </c>
       <c r="E308" t="n">
-        <v>59474021</v>
+        <v>59510941</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -16159,13 +16159,13 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>2647</v>
+        <v>2650</v>
       </c>
       <c r="D309" t="n">
         <v>531</v>
       </c>
       <c r="E309" t="n">
-        <v>27684098</v>
+        <v>27716791</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -16210,13 +16210,13 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="D310" t="n">
         <v>209</v>
       </c>
       <c r="E310" t="n">
-        <v>26321752</v>
+        <v>26331776</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -16261,13 +16261,13 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D311" t="n">
         <v>71</v>
       </c>
       <c r="E311" t="n">
-        <v>14999442</v>
+        <v>15037014</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -16312,13 +16312,13 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D312" t="n">
         <v>8</v>
       </c>
       <c r="E312" t="n">
-        <v>2428188</v>
+        <v>2518161</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -16363,13 +16363,13 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>13216</v>
+        <v>13222</v>
       </c>
       <c r="D313" t="n">
         <v>3402</v>
       </c>
       <c r="E313" t="n">
-        <v>51003944</v>
+        <v>51019868</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -16465,13 +16465,13 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>13837</v>
+        <v>13841</v>
       </c>
       <c r="D315" t="n">
         <v>2854</v>
       </c>
       <c r="E315" t="n">
-        <v>53506746</v>
+        <v>53512711</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -16516,13 +16516,13 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>5172</v>
+        <v>5174</v>
       </c>
       <c r="D316" t="n">
         <v>1067</v>
       </c>
       <c r="E316" t="n">
-        <v>26380974</v>
+        <v>26383694</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -16618,13 +16618,13 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D318" t="n">
         <v>185</v>
       </c>
       <c r="E318" t="n">
-        <v>16639531</v>
+        <v>16653301</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -16771,13 +16771,13 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>4965</v>
+        <v>4966</v>
       </c>
       <c r="D321" t="n">
         <v>1014</v>
       </c>
       <c r="E321" t="n">
-        <v>9151618</v>
+        <v>9151910</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -16873,13 +16873,13 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>3461</v>
+        <v>3462</v>
       </c>
       <c r="D323" t="n">
         <v>709</v>
       </c>
       <c r="E323" t="n">
-        <v>13182537</v>
+        <v>13183530</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
@@ -16924,13 +16924,13 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="D324" t="n">
         <v>243</v>
       </c>
       <c r="E324" t="n">
-        <v>6251733</v>
+        <v>6253319</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
@@ -17026,13 +17026,13 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D326" t="n">
         <v>28</v>
       </c>
       <c r="E326" t="n">
-        <v>1971312</v>
+        <v>1975139</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
@@ -17128,13 +17128,13 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="D328" t="n">
         <v>301</v>
       </c>
       <c r="E328" t="n">
-        <v>2491831</v>
+        <v>2492316</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
@@ -17179,13 +17179,13 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>5923</v>
+        <v>5927</v>
       </c>
       <c r="D329" t="n">
         <v>1280</v>
       </c>
       <c r="E329" t="n">
-        <v>16631962</v>
+        <v>16632879</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
@@ -17230,13 +17230,13 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>20821</v>
+        <v>20832</v>
       </c>
       <c r="D330" t="n">
         <v>4303</v>
       </c>
       <c r="E330" t="n">
-        <v>74734352</v>
+        <v>74748646</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
@@ -17281,13 +17281,13 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>10021</v>
+        <v>10031</v>
       </c>
       <c r="D331" t="n">
         <v>1979</v>
       </c>
       <c r="E331" t="n">
-        <v>53643320</v>
+        <v>53716123</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
@@ -17332,13 +17332,13 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>3969</v>
+        <v>3976</v>
       </c>
       <c r="D332" t="n">
         <v>728</v>
       </c>
       <c r="E332" t="n">
-        <v>29427951</v>
+        <v>29457061</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
@@ -17383,13 +17383,13 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>1667</v>
+        <v>1672</v>
       </c>
       <c r="D333" t="n">
         <v>260</v>
       </c>
       <c r="E333" t="n">
-        <v>24290442</v>
+        <v>24315949</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
@@ -17434,13 +17434,13 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D334" t="n">
         <v>76</v>
       </c>
       <c r="E334" t="n">
-        <v>15144946</v>
+        <v>15309005</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
@@ -17638,13 +17638,13 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>3912</v>
+        <v>3916</v>
       </c>
       <c r="D338" t="n">
         <v>759</v>
       </c>
       <c r="E338" t="n">
-        <v>12330524</v>
+        <v>12334623</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
@@ -17689,13 +17689,13 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>10068</v>
+        <v>10072</v>
       </c>
       <c r="D339" t="n">
         <v>1998</v>
       </c>
       <c r="E339" t="n">
-        <v>42056271</v>
+        <v>42244935</v>
       </c>
       <c r="F339" t="inlineStr">
         <is>
@@ -17740,13 +17740,13 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>3698</v>
+        <v>3702</v>
       </c>
       <c r="D340" t="n">
         <v>729</v>
       </c>
       <c r="E340" t="n">
-        <v>19336832</v>
+        <v>19342645</v>
       </c>
       <c r="F340" t="inlineStr">
         <is>
@@ -18046,13 +18046,13 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>3972</v>
+        <v>3979</v>
       </c>
       <c r="D346" t="n">
         <v>793</v>
       </c>
       <c r="E346" t="n">
-        <v>8552458</v>
+        <v>8561377</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
@@ -18097,13 +18097,13 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>13368</v>
+        <v>13419</v>
       </c>
       <c r="D347" t="n">
         <v>2803</v>
       </c>
       <c r="E347" t="n">
-        <v>33271646</v>
+        <v>33443062</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
@@ -18148,13 +18148,13 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>4642</v>
+        <v>4662</v>
       </c>
       <c r="D348" t="n">
         <v>1041</v>
       </c>
       <c r="E348" t="n">
-        <v>16935111</v>
+        <v>17072184</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
@@ -18199,13 +18199,13 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>1714</v>
+        <v>1721</v>
       </c>
       <c r="D349" t="n">
         <v>399</v>
       </c>
       <c r="E349" t="n">
-        <v>10322772</v>
+        <v>10369672</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
@@ -18250,13 +18250,13 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="D350" t="n">
         <v>132</v>
       </c>
       <c r="E350" t="n">
-        <v>7246778</v>
+        <v>7291061</v>
       </c>
       <c r="F350" t="inlineStr">
         <is>
@@ -18301,13 +18301,13 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D351" t="n">
         <v>34</v>
       </c>
       <c r="E351" t="n">
-        <v>9215377</v>
+        <v>9286886</v>
       </c>
       <c r="F351" t="inlineStr">
         <is>
@@ -18454,13 +18454,13 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>14853</v>
+        <v>14904</v>
       </c>
       <c r="D354" t="n">
         <v>2735</v>
       </c>
       <c r="E354" t="n">
-        <v>23508444</v>
+        <v>23589879</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
@@ -18505,13 +18505,13 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>2485</v>
+        <v>2491</v>
       </c>
       <c r="D355" t="n">
         <v>375</v>
       </c>
       <c r="E355" t="n">
-        <v>5715144</v>
+        <v>5724144</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
@@ -18556,13 +18556,13 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>5975</v>
+        <v>5978</v>
       </c>
       <c r="D356" t="n">
         <v>957</v>
       </c>
       <c r="E356" t="n">
-        <v>14417125</v>
+        <v>14422385</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
@@ -18607,13 +18607,13 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>2308</v>
+        <v>2314</v>
       </c>
       <c r="D357" t="n">
         <v>410</v>
       </c>
       <c r="E357" t="n">
-        <v>6732905</v>
+        <v>6759446</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
@@ -18709,13 +18709,13 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D359" t="n">
         <v>60</v>
       </c>
       <c r="E359" t="n">
-        <v>2080195</v>
+        <v>2088366</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
@@ -18760,13 +18760,13 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D360" t="n">
         <v>14</v>
       </c>
       <c r="E360" t="n">
-        <v>1582329</v>
+        <v>1585363</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
@@ -18811,13 +18811,13 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>4273</v>
+        <v>4306</v>
       </c>
       <c r="D361" t="n">
         <v>587</v>
       </c>
       <c r="E361" t="n">
-        <v>7931242</v>
+        <v>7978271</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
@@ -18862,13 +18862,13 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>3145</v>
+        <v>3146</v>
       </c>
       <c r="D362" t="n">
         <v>632</v>
       </c>
       <c r="E362" t="n">
-        <v>10068917</v>
+        <v>10069923</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
@@ -18913,13 +18913,13 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>9471</v>
+        <v>9475</v>
       </c>
       <c r="D363" t="n">
         <v>1965</v>
       </c>
       <c r="E363" t="n">
-        <v>38506781</v>
+        <v>38524573</v>
       </c>
       <c r="F363" t="inlineStr">
         <is>
@@ -18964,13 +18964,13 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>4039</v>
+        <v>4042</v>
       </c>
       <c r="D364" t="n">
         <v>818</v>
       </c>
       <c r="E364" t="n">
-        <v>22146028</v>
+        <v>22149855</v>
       </c>
       <c r="F364" t="inlineStr">
         <is>
@@ -19015,13 +19015,13 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D365" t="n">
         <v>257</v>
       </c>
       <c r="E365" t="n">
-        <v>7355858</v>
+        <v>7361017</v>
       </c>
       <c r="F365" t="inlineStr">
         <is>
@@ -19066,13 +19066,13 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D366" t="n">
         <v>94</v>
       </c>
       <c r="E366" t="n">
-        <v>7395897</v>
+        <v>7411816</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
@@ -19219,13 +19219,13 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>3873</v>
+        <v>3875</v>
       </c>
       <c r="D369" t="n">
         <v>838</v>
       </c>
       <c r="E369" t="n">
-        <v>10096838</v>
+        <v>10097749</v>
       </c>
       <c r="F369" t="inlineStr">
         <is>
@@ -19270,13 +19270,13 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>17686</v>
+        <v>17688</v>
       </c>
       <c r="D370" t="n">
         <v>3320</v>
       </c>
       <c r="E370" t="n">
-        <v>51247210</v>
+        <v>51251868</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
@@ -19321,13 +19321,13 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>52208</v>
+        <v>52241</v>
       </c>
       <c r="D371" t="n">
         <v>9850</v>
       </c>
       <c r="E371" t="n">
-        <v>202687527</v>
+        <v>202771545</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
@@ -19372,13 +19372,13 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>22279</v>
+        <v>22301</v>
       </c>
       <c r="D372" t="n">
         <v>3972</v>
       </c>
       <c r="E372" t="n">
-        <v>129410602</v>
+        <v>129476274</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
@@ -19423,13 +19423,13 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>8415</v>
+        <v>8422</v>
       </c>
       <c r="D373" t="n">
         <v>1482</v>
       </c>
       <c r="E373" t="n">
-        <v>65755022</v>
+        <v>65842277</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
@@ -19474,13 +19474,13 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>4109</v>
+        <v>4117</v>
       </c>
       <c r="D374" t="n">
         <v>659</v>
       </c>
       <c r="E374" t="n">
-        <v>60258311</v>
+        <v>60456061</v>
       </c>
       <c r="F374" t="inlineStr">
         <is>
@@ -19525,13 +19525,13 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>1458</v>
+        <v>1464</v>
       </c>
       <c r="D375" t="n">
         <v>272</v>
       </c>
       <c r="E375" t="n">
-        <v>47252850</v>
+        <v>47336702</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
@@ -19882,13 +19882,13 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>13792</v>
+        <v>13795</v>
       </c>
       <c r="D382" t="n">
         <v>2905</v>
       </c>
       <c r="E382" t="n">
-        <v>25793950</v>
+        <v>25797535</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
@@ -19933,13 +19933,13 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>5053</v>
+        <v>5054</v>
       </c>
       <c r="D383" t="n">
         <v>1051</v>
       </c>
       <c r="E383" t="n">
-        <v>15043060</v>
+        <v>15043384</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
@@ -19984,13 +19984,13 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>15873</v>
+        <v>15879</v>
       </c>
       <c r="D384" t="n">
         <v>3288</v>
       </c>
       <c r="E384" t="n">
-        <v>57929205</v>
+        <v>57935004</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
@@ -20035,13 +20035,13 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>6413</v>
+        <v>6417</v>
       </c>
       <c r="D385" t="n">
         <v>1317</v>
       </c>
       <c r="E385" t="n">
-        <v>34999359</v>
+        <v>35034562</v>
       </c>
       <c r="F385" t="inlineStr">
         <is>
@@ -20086,13 +20086,13 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>2108</v>
+        <v>2111</v>
       </c>
       <c r="D386" t="n">
         <v>426</v>
       </c>
       <c r="E386" t="n">
-        <v>14710617</v>
+        <v>14718946</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
@@ -20137,13 +20137,13 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="D387" t="n">
         <v>177</v>
       </c>
       <c r="E387" t="n">
-        <v>14619231</v>
+        <v>14828995</v>
       </c>
       <c r="F387" t="inlineStr">
         <is>
@@ -20188,13 +20188,13 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D388" t="n">
         <v>66</v>
       </c>
       <c r="E388" t="n">
-        <v>15972157</v>
+        <v>15985512</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
@@ -20341,13 +20341,13 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>4305</v>
+        <v>4307</v>
       </c>
       <c r="D391" t="n">
         <v>990</v>
       </c>
       <c r="E391" t="n">
-        <v>8333821</v>
+        <v>8334615</v>
       </c>
       <c r="F391" t="inlineStr">
         <is>
@@ -20392,13 +20392,13 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>8848</v>
+        <v>8852</v>
       </c>
       <c r="D392" t="n">
         <v>1728</v>
       </c>
       <c r="E392" t="n">
-        <v>24618285</v>
+        <v>24627594</v>
       </c>
       <c r="F392" t="inlineStr">
         <is>
@@ -20443,13 +20443,13 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>27391</v>
+        <v>27408</v>
       </c>
       <c r="D393" t="n">
         <v>5482</v>
       </c>
       <c r="E393" t="n">
-        <v>104044610</v>
+        <v>104078581</v>
       </c>
       <c r="F393" t="inlineStr">
         <is>
@@ -20494,13 +20494,13 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>10329</v>
+        <v>10339</v>
       </c>
       <c r="D394" t="n">
         <v>2043</v>
       </c>
       <c r="E394" t="n">
-        <v>56971613</v>
+        <v>57008053</v>
       </c>
       <c r="F394" t="inlineStr">
         <is>
@@ -20545,13 +20545,13 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>3947</v>
+        <v>3951</v>
       </c>
       <c r="D395" t="n">
         <v>753</v>
       </c>
       <c r="E395" t="n">
-        <v>30384268</v>
+        <v>30403786</v>
       </c>
       <c r="F395" t="inlineStr">
         <is>
@@ -20596,13 +20596,13 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>1837</v>
+        <v>1844</v>
       </c>
       <c r="D396" t="n">
         <v>327</v>
       </c>
       <c r="E396" t="n">
-        <v>27974978</v>
+        <v>28000282</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
@@ -20647,13 +20647,13 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="D397" t="n">
         <v>140</v>
       </c>
       <c r="E397" t="n">
-        <v>28201059</v>
+        <v>28220190</v>
       </c>
       <c r="F397" t="inlineStr">
         <is>
@@ -20698,13 +20698,13 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D398" t="n">
         <v>14</v>
       </c>
       <c r="E398" t="n">
-        <v>6533832</v>
+        <v>6804409</v>
       </c>
       <c r="F398" t="inlineStr">
         <is>
@@ -20749,13 +20749,13 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>8616</v>
+        <v>8622</v>
       </c>
       <c r="D399" t="n">
         <v>1782</v>
       </c>
       <c r="E399" t="n">
-        <v>15806317</v>
+        <v>15809093</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
@@ -20851,13 +20851,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>10820</v>
+        <v>10829</v>
       </c>
       <c r="D401" t="n">
         <v>2155</v>
       </c>
       <c r="E401" t="n">
-        <v>42248383</v>
+        <v>42261563</v>
       </c>
       <c r="F401" t="inlineStr">
         <is>
@@ -20902,13 +20902,13 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>4651</v>
+        <v>4652</v>
       </c>
       <c r="D402" t="n">
         <v>900</v>
       </c>
       <c r="E402" t="n">
-        <v>24839356</v>
+        <v>24839892</v>
       </c>
       <c r="F402" t="inlineStr">
         <is>
@@ -21004,13 +21004,13 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="D404" t="n">
         <v>128</v>
       </c>
       <c r="E404" t="n">
-        <v>11213423</v>
+        <v>11268573</v>
       </c>
       <c r="F404" t="inlineStr">
         <is>
@@ -21055,13 +21055,13 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D405" t="n">
         <v>89</v>
       </c>
       <c r="E405" t="n">
-        <v>11688997</v>
+        <v>11699136</v>
       </c>
       <c r="F405" t="inlineStr">
         <is>
@@ -21157,13 +21157,13 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>3573</v>
+        <v>3575</v>
       </c>
       <c r="D407" t="n">
         <v>786</v>
       </c>
       <c r="E407" t="n">
-        <v>6966257</v>
+        <v>6967647</v>
       </c>
       <c r="F407" t="inlineStr">
         <is>
@@ -21208,13 +21208,13 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>9433</v>
+        <v>9436</v>
       </c>
       <c r="D408" t="n">
         <v>1716</v>
       </c>
       <c r="E408" t="n">
-        <v>26285334</v>
+        <v>26296536</v>
       </c>
       <c r="F408" t="inlineStr">
         <is>
@@ -21259,13 +21259,13 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>25248</v>
+        <v>25266</v>
       </c>
       <c r="D409" t="n">
         <v>5192</v>
       </c>
       <c r="E409" t="n">
-        <v>87344793</v>
+        <v>87377101</v>
       </c>
       <c r="F409" t="inlineStr">
         <is>
@@ -21310,13 +21310,13 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>10998</v>
+        <v>11009</v>
       </c>
       <c r="D410" t="n">
         <v>2277</v>
       </c>
       <c r="E410" t="n">
-        <v>60041896</v>
+        <v>60109198</v>
       </c>
       <c r="F410" t="inlineStr">
         <is>
@@ -21361,13 +21361,13 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>4046</v>
+        <v>4052</v>
       </c>
       <c r="D411" t="n">
         <v>795</v>
       </c>
       <c r="E411" t="n">
-        <v>31969212</v>
+        <v>31990661</v>
       </c>
       <c r="F411" t="inlineStr">
         <is>
@@ -21412,13 +21412,13 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>1633</v>
+        <v>1636</v>
       </c>
       <c r="D412" t="n">
         <v>294</v>
       </c>
       <c r="E412" t="n">
-        <v>26998497</v>
+        <v>27018965</v>
       </c>
       <c r="F412" t="inlineStr">
         <is>
@@ -21463,13 +21463,13 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D413" t="n">
         <v>120</v>
       </c>
       <c r="E413" t="n">
-        <v>26185721</v>
+        <v>26202771</v>
       </c>
       <c r="F413" t="inlineStr">
         <is>
@@ -21718,13 +21718,13 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>7784</v>
+        <v>7789</v>
       </c>
       <c r="D418" t="n">
         <v>1585</v>
       </c>
       <c r="E418" t="n">
-        <v>16108037</v>
+        <v>16110568</v>
       </c>
       <c r="F418" t="inlineStr">
         <is>
@@ -21769,13 +21769,13 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>19388</v>
+        <v>19408</v>
       </c>
       <c r="D419" t="n">
         <v>3144</v>
       </c>
       <c r="E419" t="n">
-        <v>61625085</v>
+        <v>61730059</v>
       </c>
       <c r="F419" t="inlineStr">
         <is>
@@ -21820,13 +21820,13 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>45325</v>
+        <v>45364</v>
       </c>
       <c r="D420" t="n">
         <v>7709</v>
       </c>
       <c r="E420" t="n">
-        <v>181919731</v>
+        <v>182063080</v>
       </c>
       <c r="F420" t="inlineStr">
         <is>
@@ -21871,13 +21871,13 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>23588</v>
+        <v>23618</v>
       </c>
       <c r="D421" t="n">
         <v>3776</v>
       </c>
       <c r="E421" t="n">
-        <v>149579996</v>
+        <v>149690685</v>
       </c>
       <c r="F421" t="inlineStr">
         <is>
@@ -21922,13 +21922,13 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>9780</v>
+        <v>9792</v>
       </c>
       <c r="D422" t="n">
         <v>1497</v>
       </c>
       <c r="E422" t="n">
-        <v>95808659</v>
+        <v>95860219</v>
       </c>
       <c r="F422" t="inlineStr">
         <is>
@@ -21973,13 +21973,13 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>4688</v>
+        <v>4701</v>
       </c>
       <c r="D423" t="n">
         <v>710</v>
       </c>
       <c r="E423" t="n">
-        <v>89174377</v>
+        <v>89554404</v>
       </c>
       <c r="F423" t="inlineStr">
         <is>
@@ -22024,13 +22024,13 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="D424" t="n">
         <v>276</v>
       </c>
       <c r="E424" t="n">
-        <v>70875612</v>
+        <v>71138391</v>
       </c>
       <c r="F424" t="inlineStr">
         <is>
@@ -22075,13 +22075,13 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D425" t="n">
         <v>43</v>
       </c>
       <c r="E425" t="n">
-        <v>23340219</v>
+        <v>23540219</v>
       </c>
       <c r="F425" t="inlineStr">
         <is>
@@ -22432,13 +22432,13 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>14636</v>
+        <v>14643</v>
       </c>
       <c r="D432" t="n">
         <v>2643</v>
       </c>
       <c r="E432" t="n">
-        <v>28316572</v>
+        <v>28324517</v>
       </c>
       <c r="F432" t="inlineStr">
         <is>
@@ -22483,13 +22483,13 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>60038</v>
+        <v>60081</v>
       </c>
       <c r="D433" t="n">
         <v>9634</v>
       </c>
       <c r="E433" t="n">
-        <v>213939011</v>
+        <v>214146761</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>160322</v>
+        <v>160497</v>
       </c>
       <c r="D434" t="n">
         <v>25429</v>
       </c>
       <c r="E434" t="n">
-        <v>687284582</v>
+        <v>688348607</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>92014</v>
+        <v>92161</v>
       </c>
       <c r="D435" t="n">
         <v>12833</v>
       </c>
       <c r="E435" t="n">
-        <v>622058420</v>
+        <v>623611750</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -22636,13 +22636,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>48788</v>
+        <v>48895</v>
       </c>
       <c r="D436" t="n">
         <v>6165</v>
       </c>
       <c r="E436" t="n">
-        <v>509685273</v>
+        <v>510999151</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -22687,13 +22687,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>29488</v>
+        <v>29609</v>
       </c>
       <c r="D437" t="n">
         <v>3820</v>
       </c>
       <c r="E437" t="n">
-        <v>553902914</v>
+        <v>556138668</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -22738,13 +22738,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>9510</v>
+        <v>9564</v>
       </c>
       <c r="D438" t="n">
         <v>1379</v>
       </c>
       <c r="E438" t="n">
-        <v>437851379</v>
+        <v>440299417</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
@@ -22789,13 +22789,13 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>1196</v>
+        <v>1202</v>
       </c>
       <c r="D439" t="n">
         <v>227</v>
       </c>
       <c r="E439" t="n">
-        <v>119847779</v>
+        <v>120382270</v>
       </c>
       <c r="F439" t="inlineStr">
         <is>
@@ -22840,13 +22840,13 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D440" t="n">
         <v>94</v>
       </c>
       <c r="E440" t="n">
-        <v>61668733</v>
+        <v>61677166</v>
       </c>
       <c r="F440" t="inlineStr">
         <is>
@@ -22942,13 +22942,13 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D442" t="n">
         <v>57</v>
       </c>
       <c r="E442" t="n">
-        <v>38492593</v>
+        <v>38894513</v>
       </c>
       <c r="F442" t="inlineStr">
         <is>
@@ -23146,13 +23146,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>52482</v>
+        <v>52530</v>
       </c>
       <c r="D446" t="n">
         <v>8859</v>
       </c>
       <c r="E446" t="n">
-        <v>115185822</v>
+        <v>115257520</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
@@ -23197,13 +23197,13 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>11589</v>
+        <v>11596</v>
       </c>
       <c r="D447" t="n">
         <v>2097</v>
       </c>
       <c r="E447" t="n">
-        <v>33600204</v>
+        <v>33611427</v>
       </c>
       <c r="F447" t="inlineStr">
         <is>
@@ -23248,13 +23248,13 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>30650</v>
+        <v>30665</v>
       </c>
       <c r="D448" t="n">
         <v>6220</v>
       </c>
       <c r="E448" t="n">
-        <v>109509758</v>
+        <v>109540441</v>
       </c>
       <c r="F448" t="inlineStr">
         <is>
@@ -23299,13 +23299,13 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>12836</v>
+        <v>12847</v>
       </c>
       <c r="D449" t="n">
         <v>2665</v>
       </c>
       <c r="E449" t="n">
-        <v>72122908</v>
+        <v>72169166</v>
       </c>
       <c r="F449" t="inlineStr">
         <is>
@@ -23350,13 +23350,13 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>5139</v>
+        <v>5143</v>
       </c>
       <c r="D450" t="n">
         <v>950</v>
       </c>
       <c r="E450" t="n">
-        <v>40379175</v>
+        <v>40385633</v>
       </c>
       <c r="F450" t="inlineStr">
         <is>
@@ -23401,13 +23401,13 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>2307</v>
+        <v>2317</v>
       </c>
       <c r="D451" t="n">
         <v>386</v>
       </c>
       <c r="E451" t="n">
-        <v>37683935</v>
+        <v>37859562</v>
       </c>
       <c r="F451" t="inlineStr">
         <is>
@@ -23452,13 +23452,13 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D452" t="n">
         <v>140</v>
       </c>
       <c r="E452" t="n">
-        <v>30822377</v>
+        <v>30835437</v>
       </c>
       <c r="F452" t="inlineStr">
         <is>
@@ -23605,13 +23605,13 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>11169</v>
+        <v>11174</v>
       </c>
       <c r="D455" t="n">
         <v>1987</v>
       </c>
       <c r="E455" t="n">
-        <v>20305216</v>
+        <v>20308214</v>
       </c>
       <c r="F455" t="inlineStr">
         <is>
@@ -23656,13 +23656,13 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>15261</v>
+        <v>15273</v>
       </c>
       <c r="D456" t="n">
         <v>2370</v>
       </c>
       <c r="E456" t="n">
-        <v>40617936</v>
+        <v>40659341</v>
       </c>
       <c r="F456" t="inlineStr">
         <is>
@@ -23707,13 +23707,13 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>48354</v>
+        <v>48384</v>
       </c>
       <c r="D457" t="n">
         <v>8591</v>
       </c>
       <c r="E457" t="n">
-        <v>161492935</v>
+        <v>161569346</v>
       </c>
       <c r="F457" t="inlineStr">
         <is>
@@ -23758,13 +23758,13 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>23744</v>
+        <v>23762</v>
       </c>
       <c r="D458" t="n">
         <v>4645</v>
       </c>
       <c r="E458" t="n">
-        <v>129595523</v>
+        <v>129689646</v>
       </c>
       <c r="F458" t="inlineStr">
         <is>
@@ -23809,13 +23809,13 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>7597</v>
+        <v>7606</v>
       </c>
       <c r="D459" t="n">
         <v>1532</v>
       </c>
       <c r="E459" t="n">
-        <v>61467618</v>
+        <v>61540243</v>
       </c>
       <c r="F459" t="inlineStr">
         <is>
@@ -23860,13 +23860,13 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>3426</v>
+        <v>3430</v>
       </c>
       <c r="D460" t="n">
         <v>599</v>
       </c>
       <c r="E460" t="n">
-        <v>49618481</v>
+        <v>49635462</v>
       </c>
       <c r="F460" t="inlineStr">
         <is>
@@ -23962,13 +23962,13 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D462" t="n">
         <v>23</v>
       </c>
       <c r="E462" t="n">
-        <v>10561788</v>
+        <v>10761788</v>
       </c>
       <c r="F462" t="inlineStr">
         <is>
@@ -24166,13 +24166,13 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>15546</v>
+        <v>15558</v>
       </c>
       <c r="D466" t="n">
         <v>2317</v>
       </c>
       <c r="E466" t="n">
-        <v>28148524</v>
+        <v>28158790</v>
       </c>
       <c r="F466" t="inlineStr">
         <is>
@@ -24217,13 +24217,13 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>13415</v>
+        <v>13427</v>
       </c>
       <c r="D467" t="n">
         <v>2242</v>
       </c>
       <c r="E467" t="n">
-        <v>40624377</v>
+        <v>40653673</v>
       </c>
       <c r="F467" t="inlineStr">
         <is>
@@ -24268,13 +24268,13 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>37060</v>
+        <v>37094</v>
       </c>
       <c r="D468" t="n">
         <v>6655</v>
       </c>
       <c r="E468" t="n">
-        <v>130886903</v>
+        <v>130968858</v>
       </c>
       <c r="F468" t="inlineStr">
         <is>
@@ -24319,13 +24319,13 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>16305</v>
+        <v>16317</v>
       </c>
       <c r="D469" t="n">
         <v>3044</v>
       </c>
       <c r="E469" t="n">
-        <v>88043240</v>
+        <v>88079974</v>
       </c>
       <c r="F469" t="inlineStr">
         <is>
@@ -24370,13 +24370,13 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>6194</v>
+        <v>6198</v>
       </c>
       <c r="D470" t="n">
         <v>1078</v>
       </c>
       <c r="E470" t="n">
-        <v>55498043</v>
+        <v>55512324</v>
       </c>
       <c r="F470" t="inlineStr">
         <is>
@@ -24421,13 +24421,13 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>2598</v>
+        <v>2604</v>
       </c>
       <c r="D471" t="n">
         <v>432</v>
       </c>
       <c r="E471" t="n">
-        <v>43419141</v>
+        <v>43452956</v>
       </c>
       <c r="F471" t="inlineStr">
         <is>
@@ -24472,13 +24472,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="D472" t="n">
         <v>185</v>
       </c>
       <c r="E472" t="n">
-        <v>49715260</v>
+        <v>49975213</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
@@ -24523,13 +24523,13 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D473" t="n">
         <v>15</v>
       </c>
       <c r="E473" t="n">
-        <v>9362903</v>
+        <v>9400080</v>
       </c>
       <c r="F473" t="inlineStr">
         <is>
@@ -24778,13 +24778,13 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>13583</v>
+        <v>13596</v>
       </c>
       <c r="D478" t="n">
         <v>2202</v>
       </c>
       <c r="E478" t="n">
-        <v>24693496</v>
+        <v>24721779</v>
       </c>
       <c r="F478" t="inlineStr">
         <is>
@@ -24829,13 +24829,13 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>9718</v>
+        <v>9721</v>
       </c>
       <c r="D479" t="n">
         <v>1671</v>
       </c>
       <c r="E479" t="n">
-        <v>25322835</v>
+        <v>25329194</v>
       </c>
       <c r="F479" t="inlineStr">
         <is>
@@ -24880,13 +24880,13 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>28757</v>
+        <v>28769</v>
       </c>
       <c r="D480" t="n">
         <v>5525</v>
       </c>
       <c r="E480" t="n">
-        <v>95745713</v>
+        <v>95808350</v>
       </c>
       <c r="F480" t="inlineStr">
         <is>
@@ -24931,13 +24931,13 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>12491</v>
+        <v>12500</v>
       </c>
       <c r="D481" t="n">
         <v>2580</v>
       </c>
       <c r="E481" t="n">
-        <v>63925455</v>
+        <v>64038839</v>
       </c>
       <c r="F481" t="inlineStr">
         <is>
@@ -24982,13 +24982,13 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>4565</v>
+        <v>4569</v>
       </c>
       <c r="D482" t="n">
         <v>883</v>
       </c>
       <c r="E482" t="n">
-        <v>31921840</v>
+        <v>32096991</v>
       </c>
       <c r="F482" t="inlineStr">
         <is>
@@ -25033,13 +25033,13 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="D483" t="n">
         <v>365</v>
       </c>
       <c r="E483" t="n">
-        <v>28141956</v>
+        <v>28144485</v>
       </c>
       <c r="F483" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D484" t="n">
         <v>122</v>
       </c>
       <c r="E484" t="n">
-        <v>29022108</v>
+        <v>29161630</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>9486</v>
+        <v>9490</v>
       </c>
       <c r="D487" t="n">
         <v>1683</v>
       </c>
       <c r="E487" t="n">
-        <v>17277784</v>
+        <v>17282322</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -25288,13 +25288,13 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>10385</v>
+        <v>10392</v>
       </c>
       <c r="D488" t="n">
         <v>2049</v>
       </c>
       <c r="E488" t="n">
-        <v>30226608</v>
+        <v>30233354</v>
       </c>
       <c r="F488" t="inlineStr">
         <is>
@@ -25339,13 +25339,13 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>27541</v>
+        <v>27561</v>
       </c>
       <c r="D489" t="n">
         <v>5745</v>
       </c>
       <c r="E489" t="n">
-        <v>104913823</v>
+        <v>104976146</v>
       </c>
       <c r="F489" t="inlineStr">
         <is>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>13028</v>
+        <v>13035</v>
       </c>
       <c r="D490" t="n">
         <v>2491</v>
       </c>
       <c r="E490" t="n">
-        <v>76617514</v>
+        <v>76729834</v>
       </c>
       <c r="F490" t="inlineStr">
         <is>
@@ -25441,13 +25441,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>5259</v>
+        <v>5273</v>
       </c>
       <c r="D491" t="n">
         <v>918</v>
       </c>
       <c r="E491" t="n">
-        <v>43099673</v>
+        <v>43216324</v>
       </c>
       <c r="F491" t="inlineStr">
         <is>
@@ -25492,13 +25492,13 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>2350</v>
+        <v>2355</v>
       </c>
       <c r="D492" t="n">
         <v>390</v>
       </c>
       <c r="E492" t="n">
-        <v>41035181</v>
+        <v>41172648</v>
       </c>
       <c r="F492" t="inlineStr">
         <is>
@@ -25696,13 +25696,13 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>9130</v>
+        <v>9135</v>
       </c>
       <c r="D496" t="n">
         <v>1956</v>
       </c>
       <c r="E496" t="n">
-        <v>17595647</v>
+        <v>17596702</v>
       </c>
       <c r="F496" t="inlineStr">
         <is>
@@ -25747,13 +25747,13 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>7997</v>
+        <v>8006</v>
       </c>
       <c r="D497" t="n">
         <v>1912</v>
       </c>
       <c r="E497" t="n">
-        <v>16138532</v>
+        <v>16165162</v>
       </c>
       <c r="F497" t="inlineStr">
         <is>
@@ -25798,13 +25798,13 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>17934</v>
+        <v>17948</v>
       </c>
       <c r="D498" t="n">
         <v>4979</v>
       </c>
       <c r="E498" t="n">
-        <v>40197465</v>
+        <v>40235703</v>
       </c>
       <c r="F498" t="inlineStr">
         <is>
@@ -25849,13 +25849,13 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>6093</v>
+        <v>6100</v>
       </c>
       <c r="D499" t="n">
         <v>1891</v>
       </c>
       <c r="E499" t="n">
-        <v>20130847</v>
+        <v>20159485</v>
       </c>
       <c r="F499" t="inlineStr">
         <is>
@@ -25900,13 +25900,13 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>2595</v>
+        <v>2601</v>
       </c>
       <c r="D500" t="n">
         <v>740</v>
       </c>
       <c r="E500" t="n">
-        <v>15810379</v>
+        <v>15865456</v>
       </c>
       <c r="F500" t="inlineStr">
         <is>
@@ -25951,13 +25951,13 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="D501" t="n">
         <v>231</v>
       </c>
       <c r="E501" t="n">
-        <v>17107027</v>
+        <v>17173125</v>
       </c>
       <c r="F501" t="inlineStr">
         <is>
@@ -26002,13 +26002,13 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D502" t="n">
         <v>70</v>
       </c>
       <c r="E502" t="n">
-        <v>12999287</v>
+        <v>13075976</v>
       </c>
       <c r="F502" t="inlineStr">
         <is>
@@ -26053,13 +26053,13 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D503" t="n">
         <v>17</v>
       </c>
       <c r="E503" t="n">
-        <v>4617809</v>
+        <v>4675649</v>
       </c>
       <c r="F503" t="inlineStr">
         <is>
@@ -26155,13 +26155,13 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>8661</v>
+        <v>8665</v>
       </c>
       <c r="D505" t="n">
         <v>2142</v>
       </c>
       <c r="E505" t="n">
-        <v>12525383</v>
+        <v>12529331</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
@@ -26206,13 +26206,13 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>3467</v>
+        <v>3475</v>
       </c>
       <c r="D506" t="n">
         <v>697</v>
       </c>
       <c r="E506" t="n">
-        <v>8462844</v>
+        <v>8479825</v>
       </c>
       <c r="F506" t="inlineStr">
         <is>
@@ -26257,13 +26257,13 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>10661</v>
+        <v>10696</v>
       </c>
       <c r="D507" t="n">
         <v>2245</v>
       </c>
       <c r="E507" t="n">
-        <v>29957229</v>
+        <v>30072382</v>
       </c>
       <c r="F507" t="inlineStr">
         <is>
@@ -26308,13 +26308,13 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>4011</v>
+        <v>4016</v>
       </c>
       <c r="D508" t="n">
         <v>966</v>
       </c>
       <c r="E508" t="n">
-        <v>16966069</v>
+        <v>17018739</v>
       </c>
       <c r="F508" t="inlineStr">
         <is>
@@ -26359,13 +26359,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>1590</v>
+        <v>1597</v>
       </c>
       <c r="D509" t="n">
         <v>391</v>
       </c>
       <c r="E509" t="n">
-        <v>8912483</v>
+        <v>9022998</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -26410,13 +26410,13 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="D510" t="n">
         <v>157</v>
       </c>
       <c r="E510" t="n">
-        <v>7459282</v>
+        <v>7516361</v>
       </c>
       <c r="F510" t="inlineStr">
         <is>
@@ -26461,13 +26461,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D511" t="n">
         <v>53</v>
       </c>
       <c r="E511" t="n">
-        <v>5776640</v>
+        <v>5791390</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -26614,13 +26614,13 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>7654</v>
+        <v>7675</v>
       </c>
       <c r="D514" t="n">
         <v>1479</v>
       </c>
       <c r="E514" t="n">
-        <v>11699015</v>
+        <v>11723130</v>
       </c>
       <c r="F514" t="inlineStr">
         <is>
@@ -26665,13 +26665,13 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D515" t="n">
         <v>241</v>
       </c>
       <c r="E515" t="n">
-        <v>4534345</v>
+        <v>4536965</v>
       </c>
       <c r="F515" t="inlineStr">
         <is>
@@ -27022,13 +27022,13 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>8185</v>
+        <v>8189</v>
       </c>
       <c r="D522" t="n">
         <v>1485</v>
       </c>
       <c r="E522" t="n">
-        <v>29357394</v>
+        <v>29359058</v>
       </c>
       <c r="F522" t="inlineStr">
         <is>
@@ -27073,13 +27073,13 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>19081</v>
+        <v>19087</v>
       </c>
       <c r="D523" t="n">
         <v>3815</v>
       </c>
       <c r="E523" t="n">
-        <v>80448949</v>
+        <v>80456783</v>
       </c>
       <c r="F523" t="inlineStr">
         <is>
@@ -27124,13 +27124,13 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>7856</v>
+        <v>7863</v>
       </c>
       <c r="D524" t="n">
         <v>1450</v>
       </c>
       <c r="E524" t="n">
-        <v>48099208</v>
+        <v>48122449</v>
       </c>
       <c r="F524" t="inlineStr">
         <is>
@@ -27175,13 +27175,13 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>3242</v>
+        <v>3246</v>
       </c>
       <c r="D525" t="n">
         <v>547</v>
       </c>
       <c r="E525" t="n">
-        <v>30225406</v>
+        <v>30246606</v>
       </c>
       <c r="F525" t="inlineStr">
         <is>
@@ -27226,13 +27226,13 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="D526" t="n">
         <v>269</v>
       </c>
       <c r="E526" t="n">
-        <v>26919969</v>
+        <v>26927411</v>
       </c>
       <c r="F526" t="inlineStr">
         <is>
@@ -27277,13 +27277,13 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D527" t="n">
         <v>96</v>
       </c>
       <c r="E527" t="n">
-        <v>21554191</v>
+        <v>21565617</v>
       </c>
       <c r="F527" t="inlineStr">
         <is>
@@ -27430,13 +27430,13 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>5145</v>
+        <v>5146</v>
       </c>
       <c r="D530" t="n">
         <v>1127</v>
       </c>
       <c r="E530" t="n">
-        <v>10534212</v>
+        <v>10534959</v>
       </c>
       <c r="F530" t="inlineStr">
         <is>
@@ -27532,13 +27532,13 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>12036</v>
+        <v>12042</v>
       </c>
       <c r="D532" t="n">
         <v>2541</v>
       </c>
       <c r="E532" t="n">
-        <v>45394503</v>
+        <v>45397978</v>
       </c>
       <c r="F532" t="inlineStr">
         <is>
@@ -27583,13 +27583,13 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>4514</v>
+        <v>4516</v>
       </c>
       <c r="D533" t="n">
         <v>943</v>
       </c>
       <c r="E533" t="n">
-        <v>23632960</v>
+        <v>23636527</v>
       </c>
       <c r="F533" t="inlineStr">
         <is>
@@ -27634,13 +27634,13 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="D534" t="n">
         <v>288</v>
       </c>
       <c r="E534" t="n">
-        <v>9508870</v>
+        <v>9513915</v>
       </c>
       <c r="F534" t="inlineStr">
         <is>
@@ -27685,13 +27685,13 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D535" t="n">
         <v>97</v>
       </c>
       <c r="E535" t="n">
-        <v>7999547</v>
+        <v>8002315</v>
       </c>
       <c r="F535" t="inlineStr">
         <is>
@@ -27838,13 +27838,13 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>3695</v>
+        <v>3696</v>
       </c>
       <c r="D538" t="n">
         <v>804</v>
       </c>
       <c r="E538" t="n">
-        <v>7354337</v>
+        <v>7355200</v>
       </c>
       <c r="F538" t="inlineStr">
         <is>
@@ -27889,13 +27889,13 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>5202</v>
+        <v>5206</v>
       </c>
       <c r="D539" t="n">
         <v>943</v>
       </c>
       <c r="E539" t="n">
-        <v>18586826</v>
+        <v>18591785</v>
       </c>
       <c r="F539" t="inlineStr">
         <is>
@@ -27940,13 +27940,13 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>12612</v>
+        <v>12618</v>
       </c>
       <c r="D540" t="n">
         <v>2489</v>
       </c>
       <c r="E540" t="n">
-        <v>53798290</v>
+        <v>53804022</v>
       </c>
       <c r="F540" t="inlineStr">
         <is>
@@ -27991,13 +27991,13 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>4702</v>
+        <v>4708</v>
       </c>
       <c r="D541" t="n">
         <v>939</v>
       </c>
       <c r="E541" t="n">
-        <v>27408469</v>
+        <v>27475707</v>
       </c>
       <c r="F541" t="inlineStr">
         <is>
@@ -28042,13 +28042,13 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="D542" t="n">
         <v>338</v>
       </c>
       <c r="E542" t="n">
-        <v>14444119</v>
+        <v>14451768</v>
       </c>
       <c r="F542" t="inlineStr">
         <is>
@@ -28093,13 +28093,13 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D543" t="n">
         <v>101</v>
       </c>
       <c r="E543" t="n">
-        <v>9136010</v>
+        <v>9138077</v>
       </c>
       <c r="F543" t="inlineStr">
         <is>
@@ -28348,13 +28348,13 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>6606</v>
+        <v>6608</v>
       </c>
       <c r="D548" t="n">
         <v>1362</v>
       </c>
       <c r="E548" t="n">
-        <v>25496892</v>
+        <v>25498164</v>
       </c>
       <c r="F548" t="inlineStr">
         <is>
@@ -28399,13 +28399,13 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>2096</v>
+        <v>2098</v>
       </c>
       <c r="D549" t="n">
         <v>439</v>
       </c>
       <c r="E549" t="n">
-        <v>10654837</v>
+        <v>10657025</v>
       </c>
       <c r="F549" t="inlineStr">
         <is>
@@ -28450,13 +28450,13 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D550" t="n">
         <v>126</v>
       </c>
       <c r="E550" t="n">
-        <v>3491373</v>
+        <v>3492651</v>
       </c>
       <c r="F550" t="inlineStr">
         <is>
@@ -28603,13 +28603,13 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="D553" t="n">
         <v>519</v>
       </c>
       <c r="E553" t="n">
-        <v>4749961</v>
+        <v>4750495</v>
       </c>
       <c r="F553" t="inlineStr">
         <is>
@@ -28654,13 +28654,13 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>7897</v>
+        <v>7901</v>
       </c>
       <c r="D554" t="n">
         <v>1510</v>
       </c>
       <c r="E554" t="n">
-        <v>24815972</v>
+        <v>24821672</v>
       </c>
       <c r="F554" t="inlineStr">
         <is>
@@ -28705,13 +28705,13 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>24738</v>
+        <v>24750</v>
       </c>
       <c r="D555" t="n">
         <v>4894</v>
       </c>
       <c r="E555" t="n">
-        <v>101009779</v>
+        <v>101034902</v>
       </c>
       <c r="F555" t="inlineStr">
         <is>
@@ -28756,13 +28756,13 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>10822</v>
+        <v>10826</v>
       </c>
       <c r="D556" t="n">
         <v>2010</v>
       </c>
       <c r="E556" t="n">
-        <v>62576085</v>
+        <v>62603436</v>
       </c>
       <c r="F556" t="inlineStr">
         <is>
@@ -28807,13 +28807,13 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>3995</v>
+        <v>3998</v>
       </c>
       <c r="D557" t="n">
         <v>724</v>
       </c>
       <c r="E557" t="n">
-        <v>32362010</v>
+        <v>32373248</v>
       </c>
       <c r="F557" t="inlineStr">
         <is>
@@ -28858,13 +28858,13 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="D558" t="n">
         <v>335</v>
       </c>
       <c r="E558" t="n">
-        <v>29668480</v>
+        <v>29686957</v>
       </c>
       <c r="F558" t="inlineStr">
         <is>
@@ -28909,13 +28909,13 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="D559" t="n">
         <v>130</v>
       </c>
       <c r="E559" t="n">
-        <v>25586538</v>
+        <v>25623614</v>
       </c>
       <c r="F559" t="inlineStr">
         <is>
@@ -29062,13 +29062,13 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>6499</v>
+        <v>6502</v>
       </c>
       <c r="D562" t="n">
         <v>1432</v>
       </c>
       <c r="E562" t="n">
-        <v>12429693</v>
+        <v>12433414</v>
       </c>
       <c r="F562" t="inlineStr">
         <is>
@@ -29113,13 +29113,13 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>2822</v>
+        <v>2823</v>
       </c>
       <c r="D563" t="n">
         <v>572</v>
       </c>
       <c r="E563" t="n">
-        <v>8202795</v>
+        <v>8203394</v>
       </c>
       <c r="F563" t="inlineStr">
         <is>
@@ -29164,13 +29164,13 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>7708</v>
+        <v>7713</v>
       </c>
       <c r="D564" t="n">
         <v>1668</v>
       </c>
       <c r="E564" t="n">
-        <v>29662016</v>
+        <v>29665962</v>
       </c>
       <c r="F564" t="inlineStr">
         <is>
@@ -29215,13 +29215,13 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>2864</v>
+        <v>2866</v>
       </c>
       <c r="D565" t="n">
         <v>614</v>
       </c>
       <c r="E565" t="n">
-        <v>15655385</v>
+        <v>15659314</v>
       </c>
       <c r="F565" t="inlineStr">
         <is>
@@ -29266,13 +29266,13 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="D566" t="n">
         <v>220</v>
       </c>
       <c r="E566" t="n">
-        <v>9000804</v>
+        <v>9009417</v>
       </c>
       <c r="F566" t="inlineStr">
         <is>
@@ -29368,13 +29368,13 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D568" t="n">
         <v>29</v>
       </c>
       <c r="E568" t="n">
-        <v>6229407</v>
+        <v>6238828</v>
       </c>
       <c r="F568" t="inlineStr">
         <is>
@@ -29470,13 +29470,13 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>2895</v>
+        <v>2896</v>
       </c>
       <c r="D570" t="n">
         <v>638</v>
       </c>
       <c r="E570" t="n">
-        <v>5158127</v>
+        <v>5159507</v>
       </c>
       <c r="F570" t="inlineStr">
         <is>
@@ -29521,13 +29521,13 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>11777</v>
+        <v>11780</v>
       </c>
       <c r="D571" t="n">
         <v>2160</v>
       </c>
       <c r="E571" t="n">
-        <v>44864653</v>
+        <v>44871549</v>
       </c>
       <c r="F571" t="inlineStr">
         <is>
@@ -29572,13 +29572,13 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>20117</v>
+        <v>20123</v>
       </c>
       <c r="D572" t="n">
         <v>4352</v>
       </c>
       <c r="E572" t="n">
-        <v>84662444</v>
+        <v>84668645</v>
       </c>
       <c r="F572" t="inlineStr">
         <is>
@@ -29623,13 +29623,13 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>7357</v>
+        <v>7359</v>
       </c>
       <c r="D573" t="n">
         <v>1536</v>
       </c>
       <c r="E573" t="n">
-        <v>46578945</v>
+        <v>46581671</v>
       </c>
       <c r="F573" t="inlineStr">
         <is>
@@ -29674,13 +29674,13 @@
         </is>
       </c>
       <c r="C574" t="n">
-        <v>2496</v>
+        <v>2497</v>
       </c>
       <c r="D574" t="n">
         <v>523</v>
       </c>
       <c r="E574" t="n">
-        <v>23894119</v>
+        <v>23895888</v>
       </c>
       <c r="F574" t="inlineStr">
         <is>
@@ -29725,13 +29725,13 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D575" t="n">
         <v>211</v>
       </c>
       <c r="E575" t="n">
-        <v>19651019</v>
+        <v>19653070</v>
       </c>
       <c r="F575" t="inlineStr">
         <is>
@@ -29929,13 +29929,13 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>5648</v>
+        <v>5649</v>
       </c>
       <c r="D579" t="n">
         <v>1374</v>
       </c>
       <c r="E579" t="n">
-        <v>11239680</v>
+        <v>11239768</v>
       </c>
       <c r="F579" t="inlineStr">
         <is>
@@ -29980,13 +29980,13 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>2790</v>
+        <v>2791</v>
       </c>
       <c r="D580" t="n">
         <v>517</v>
       </c>
       <c r="E580" t="n">
-        <v>9002875</v>
+        <v>9004071</v>
       </c>
       <c r="F580" t="inlineStr">
         <is>
@@ -30031,13 +30031,13 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>6643</v>
+        <v>6651</v>
       </c>
       <c r="D581" t="n">
         <v>1357</v>
       </c>
       <c r="E581" t="n">
-        <v>26393235</v>
+        <v>26403196</v>
       </c>
       <c r="F581" t="inlineStr">
         <is>
@@ -30133,13 +30133,13 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D583" t="n">
         <v>166</v>
       </c>
       <c r="E583" t="n">
-        <v>6355201</v>
+        <v>6358969</v>
       </c>
       <c r="F583" t="inlineStr">
         <is>
@@ -30184,13 +30184,13 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D584" t="n">
         <v>66</v>
       </c>
       <c r="E584" t="n">
-        <v>5711575</v>
+        <v>5817851</v>
       </c>
       <c r="F584" t="inlineStr">
         <is>
@@ -30337,13 +30337,13 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D587" t="n">
         <v>171</v>
       </c>
       <c r="E587" t="n">
-        <v>2895908</v>
+        <v>2896700</v>
       </c>
       <c r="F587" t="inlineStr">
         <is>
@@ -30388,13 +30388,13 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>2626</v>
+        <v>2628</v>
       </c>
       <c r="D588" t="n">
         <v>549</v>
       </c>
       <c r="E588" t="n">
-        <v>8965291</v>
+        <v>8968735</v>
       </c>
       <c r="F588" t="inlineStr">
         <is>
@@ -30745,13 +30745,13 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>7112</v>
+        <v>7114</v>
       </c>
       <c r="D595" t="n">
         <v>1525</v>
       </c>
       <c r="E595" t="n">
-        <v>27450143</v>
+        <v>27452933</v>
       </c>
       <c r="F595" t="inlineStr">
         <is>
@@ -30796,13 +30796,13 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>2674</v>
+        <v>2679</v>
       </c>
       <c r="D596" t="n">
         <v>573</v>
       </c>
       <c r="E596" t="n">
-        <v>13976284</v>
+        <v>13984735</v>
       </c>
       <c r="F596" t="inlineStr">
         <is>
@@ -30898,13 +30898,13 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D598" t="n">
         <v>77</v>
       </c>
       <c r="E598" t="n">
-        <v>7480099</v>
+        <v>7489093</v>
       </c>
       <c r="F598" t="inlineStr">
         <is>
@@ -30949,13 +30949,13 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D599" t="n">
         <v>28</v>
       </c>
       <c r="E599" t="n">
-        <v>5661238</v>
+        <v>5750357</v>
       </c>
       <c r="F599" t="inlineStr">
         <is>
@@ -31051,13 +31051,13 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="D601" t="n">
         <v>483</v>
       </c>
       <c r="E601" t="n">
-        <v>4030528</v>
+        <v>4031023</v>
       </c>
       <c r="F601" t="inlineStr">
         <is>
@@ -31153,13 +31153,13 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>13726</v>
+        <v>13736</v>
       </c>
       <c r="D603" t="n">
         <v>2757</v>
       </c>
       <c r="E603" t="n">
-        <v>56890479</v>
+        <v>56915692</v>
       </c>
       <c r="F603" t="inlineStr">
         <is>
@@ -31204,13 +31204,13 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>4363</v>
+        <v>4367</v>
       </c>
       <c r="D604" t="n">
         <v>896</v>
       </c>
       <c r="E604" t="n">
-        <v>24388431</v>
+        <v>24398384</v>
       </c>
       <c r="F604" t="inlineStr">
         <is>
@@ -31306,13 +31306,13 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D606" t="n">
         <v>112</v>
       </c>
       <c r="E606" t="n">
-        <v>9666396</v>
+        <v>9747372</v>
       </c>
       <c r="F606" t="inlineStr">
         <is>
@@ -31408,13 +31408,13 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D608" t="n">
         <v>4</v>
       </c>
       <c r="E608" t="n">
-        <v>2299640</v>
+        <v>2496563</v>
       </c>
       <c r="F608" t="inlineStr">
         <is>
@@ -31459,13 +31459,13 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>5060</v>
+        <v>5061</v>
       </c>
       <c r="D609" t="n">
         <v>1185</v>
       </c>
       <c r="E609" t="n">
-        <v>9664995</v>
+        <v>9665535</v>
       </c>
       <c r="F609" t="inlineStr">
         <is>
@@ -31510,13 +31510,13 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>22779</v>
+        <v>22790</v>
       </c>
       <c r="D610" t="n">
         <v>4572</v>
       </c>
       <c r="E610" t="n">
-        <v>78894845</v>
+        <v>78914117</v>
       </c>
       <c r="F610" t="inlineStr">
         <is>
@@ -31561,13 +31561,13 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>48275</v>
+        <v>48308</v>
       </c>
       <c r="D611" t="n">
         <v>10166</v>
       </c>
       <c r="E611" t="n">
-        <v>200514042</v>
+        <v>200609531</v>
       </c>
       <c r="F611" t="inlineStr">
         <is>
@@ -31612,13 +31612,13 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>20603</v>
+        <v>20616</v>
       </c>
       <c r="D612" t="n">
         <v>4073</v>
       </c>
       <c r="E612" t="n">
-        <v>123385307</v>
+        <v>123417342</v>
       </c>
       <c r="F612" t="inlineStr">
         <is>
@@ -31663,13 +31663,13 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>8701</v>
+        <v>8709</v>
       </c>
       <c r="D613" t="n">
         <v>1554</v>
       </c>
       <c r="E613" t="n">
-        <v>73053122</v>
+        <v>73071206</v>
       </c>
       <c r="F613" t="inlineStr">
         <is>
@@ -31714,13 +31714,13 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>4256</v>
+        <v>4260</v>
       </c>
       <c r="D614" t="n">
         <v>707</v>
       </c>
       <c r="E614" t="n">
-        <v>68502444</v>
+        <v>68548866</v>
       </c>
       <c r="F614" t="inlineStr">
         <is>
@@ -31969,13 +31969,13 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>15869</v>
+        <v>15875</v>
       </c>
       <c r="D619" t="n">
         <v>3600</v>
       </c>
       <c r="E619" t="n">
-        <v>37077093</v>
+        <v>37083126</v>
       </c>
       <c r="F619" t="inlineStr">
         <is>
@@ -32020,13 +32020,13 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>3353</v>
+        <v>3357</v>
       </c>
       <c r="D620" t="n">
         <v>629</v>
       </c>
       <c r="E620" t="n">
-        <v>9751709</v>
+        <v>9753372</v>
       </c>
       <c r="F620" t="inlineStr">
         <is>
@@ -32071,13 +32071,13 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>8056</v>
+        <v>8062</v>
       </c>
       <c r="D621" t="n">
         <v>1636</v>
       </c>
       <c r="E621" t="n">
-        <v>30682292</v>
+        <v>30690272</v>
       </c>
       <c r="F621" t="inlineStr">
         <is>
@@ -32122,13 +32122,13 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>3150</v>
+        <v>3154</v>
       </c>
       <c r="D622" t="n">
         <v>644</v>
       </c>
       <c r="E622" t="n">
-        <v>17431085</v>
+        <v>17438369</v>
       </c>
       <c r="F622" t="inlineStr">
         <is>
@@ -32275,13 +32275,13 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D625" t="n">
         <v>42</v>
       </c>
       <c r="E625" t="n">
-        <v>10198888</v>
+        <v>10209675</v>
       </c>
       <c r="F625" t="inlineStr">
         <is>
@@ -32326,13 +32326,13 @@
         </is>
       </c>
       <c r="C626" t="n">
-        <v>3406</v>
+        <v>3407</v>
       </c>
       <c r="D626" t="n">
         <v>752</v>
       </c>
       <c r="E626" t="n">
-        <v>6339115</v>
+        <v>6339554</v>
       </c>
       <c r="F626" t="inlineStr">
         <is>
@@ -32377,13 +32377,13 @@
         </is>
       </c>
       <c r="C627" t="n">
-        <v>8167</v>
+        <v>8170</v>
       </c>
       <c r="D627" t="n">
         <v>1435</v>
       </c>
       <c r="E627" t="n">
-        <v>31344195</v>
+        <v>31348838</v>
       </c>
       <c r="F627" t="inlineStr">
         <is>
@@ -32428,13 +32428,13 @@
         </is>
       </c>
       <c r="C628" t="n">
-        <v>12537</v>
+        <v>12542</v>
       </c>
       <c r="D628" t="n">
         <v>2597</v>
       </c>
       <c r="E628" t="n">
-        <v>50510543</v>
+        <v>50530840</v>
       </c>
       <c r="F628" t="inlineStr">
         <is>
@@ -32479,13 +32479,13 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>4174</v>
+        <v>4180</v>
       </c>
       <c r="D629" t="n">
         <v>898</v>
       </c>
       <c r="E629" t="n">
-        <v>23275374</v>
+        <v>23294520</v>
       </c>
       <c r="F629" t="inlineStr">
         <is>
@@ -32530,13 +32530,13 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="D630" t="n">
         <v>293</v>
       </c>
       <c r="E630" t="n">
-        <v>13087463</v>
+        <v>13089590</v>
       </c>
       <c r="F630" t="inlineStr">
         <is>
@@ -32581,13 +32581,13 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D631" t="n">
         <v>114</v>
       </c>
       <c r="E631" t="n">
-        <v>8973237</v>
+        <v>8979048</v>
       </c>
       <c r="F631" t="inlineStr">
         <is>
@@ -32785,13 +32785,13 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>4011</v>
+        <v>4014</v>
       </c>
       <c r="D635" t="n">
         <v>778</v>
       </c>
       <c r="E635" t="n">
-        <v>13140168</v>
+        <v>13148389</v>
       </c>
       <c r="F635" t="inlineStr">
         <is>
@@ -32836,13 +32836,13 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>8446</v>
+        <v>8448</v>
       </c>
       <c r="D636" t="n">
         <v>1825</v>
       </c>
       <c r="E636" t="n">
-        <v>31075784</v>
+        <v>31078144</v>
       </c>
       <c r="F636" t="inlineStr">
         <is>
@@ -32887,13 +32887,13 @@
         </is>
       </c>
       <c r="C637" t="n">
-        <v>3203</v>
+        <v>3206</v>
       </c>
       <c r="D637" t="n">
         <v>691</v>
       </c>
       <c r="E637" t="n">
-        <v>16505162</v>
+        <v>16512049</v>
       </c>
       <c r="F637" t="inlineStr">
         <is>
@@ -32938,13 +32938,13 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="D638" t="n">
         <v>210</v>
       </c>
       <c r="E638" t="n">
-        <v>5645020</v>
+        <v>5652714</v>
       </c>
       <c r="F638" t="inlineStr">
         <is>
@@ -32989,13 +32989,13 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D639" t="n">
         <v>68</v>
       </c>
       <c r="E639" t="n">
-        <v>5674901</v>
+        <v>5678975</v>
       </c>
       <c r="F639" t="inlineStr">
         <is>
@@ -33091,13 +33091,13 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>3088</v>
+        <v>3090</v>
       </c>
       <c r="D641" t="n">
         <v>754</v>
       </c>
       <c r="E641" t="n">
-        <v>5880512</v>
+        <v>5881535</v>
       </c>
       <c r="F641" t="inlineStr">
         <is>
@@ -33142,13 +33142,13 @@
         </is>
       </c>
       <c r="C642" t="n">
-        <v>10449</v>
+        <v>10450</v>
       </c>
       <c r="D642" t="n">
         <v>1859</v>
       </c>
       <c r="E642" t="n">
-        <v>37214923</v>
+        <v>37215817</v>
       </c>
       <c r="F642" t="inlineStr">
         <is>
@@ -33193,13 +33193,13 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>23986</v>
+        <v>23997</v>
       </c>
       <c r="D643" t="n">
         <v>4832</v>
       </c>
       <c r="E643" t="n">
-        <v>99051413</v>
+        <v>99068502</v>
       </c>
       <c r="F643" t="inlineStr">
         <is>
@@ -33244,13 +33244,13 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>9568</v>
+        <v>9569</v>
       </c>
       <c r="D644" t="n">
         <v>1835</v>
       </c>
       <c r="E644" t="n">
-        <v>56543281</v>
+        <v>56544202</v>
       </c>
       <c r="F644" t="inlineStr">
         <is>
@@ -33295,13 +33295,13 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>3566</v>
+        <v>3570</v>
       </c>
       <c r="D645" t="n">
         <v>673</v>
       </c>
       <c r="E645" t="n">
-        <v>29657831</v>
+        <v>29664955</v>
       </c>
       <c r="F645" t="inlineStr">
         <is>
@@ -33346,13 +33346,13 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="D646" t="n">
         <v>296</v>
       </c>
       <c r="E646" t="n">
-        <v>25198255</v>
+        <v>25214322</v>
       </c>
       <c r="F646" t="inlineStr">
         <is>
@@ -33499,13 +33499,13 @@
         </is>
       </c>
       <c r="C649" t="n">
-        <v>8210</v>
+        <v>8212</v>
       </c>
       <c r="D649" t="n">
         <v>1923</v>
       </c>
       <c r="E649" t="n">
-        <v>16191038</v>
+        <v>16192234</v>
       </c>
       <c r="F649" t="inlineStr">
         <is>
@@ -33550,13 +33550,13 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>2845</v>
+        <v>2847</v>
       </c>
       <c r="D650" t="n">
         <v>575</v>
       </c>
       <c r="E650" t="n">
-        <v>8721005</v>
+        <v>8722694</v>
       </c>
       <c r="F650" t="inlineStr">
         <is>
@@ -33601,13 +33601,13 @@
         </is>
       </c>
       <c r="C651" t="n">
-        <v>8432</v>
+        <v>8435</v>
       </c>
       <c r="D651" t="n">
         <v>1782</v>
       </c>
       <c r="E651" t="n">
-        <v>31861044</v>
+        <v>31863453</v>
       </c>
       <c r="F651" t="inlineStr">
         <is>
@@ -33652,13 +33652,13 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>3114</v>
+        <v>3116</v>
       </c>
       <c r="D652" t="n">
         <v>655</v>
       </c>
       <c r="E652" t="n">
-        <v>15541277</v>
+        <v>15543619</v>
       </c>
       <c r="F652" t="inlineStr">
         <is>
@@ -33703,13 +33703,13 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="D653" t="n">
         <v>248</v>
       </c>
       <c r="E653" t="n">
-        <v>10137624</v>
+        <v>10158999</v>
       </c>
       <c r="F653" t="inlineStr">
         <is>
@@ -33754,13 +33754,13 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D654" t="n">
         <v>107</v>
       </c>
       <c r="E654" t="n">
-        <v>10298275</v>
+        <v>10301140</v>
       </c>
       <c r="F654" t="inlineStr">
         <is>
@@ -33805,13 +33805,13 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D655" t="n">
         <v>49</v>
       </c>
       <c r="E655" t="n">
-        <v>10929883</v>
+        <v>10938615</v>
       </c>
       <c r="F655" t="inlineStr">
         <is>
@@ -33907,13 +33907,13 @@
         </is>
       </c>
       <c r="C657" t="n">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="D657" t="n">
         <v>601</v>
       </c>
       <c r="E657" t="n">
-        <v>5368256</v>
+        <v>5368527</v>
       </c>
       <c r="F657" t="inlineStr">
         <is>
@@ -34009,13 +34009,13 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>4746</v>
+        <v>4750</v>
       </c>
       <c r="D659" t="n">
         <v>911</v>
       </c>
       <c r="E659" t="n">
-        <v>18282650</v>
+        <v>18290063</v>
       </c>
       <c r="F659" t="inlineStr">
         <is>
@@ -34060,13 +34060,13 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="D660" t="n">
         <v>339</v>
       </c>
       <c r="E660" t="n">
-        <v>11199429</v>
+        <v>11208793</v>
       </c>
       <c r="F660" t="inlineStr">
         <is>
@@ -34111,13 +34111,13 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D661" t="n">
         <v>103</v>
       </c>
       <c r="E661" t="n">
-        <v>3767981</v>
+        <v>3770648</v>
       </c>
       <c r="F661" t="inlineStr">
         <is>
@@ -34315,13 +34315,13 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>7905</v>
+        <v>7908</v>
       </c>
       <c r="D665" t="n">
         <v>1296</v>
       </c>
       <c r="E665" t="n">
-        <v>28770932</v>
+        <v>28772526</v>
       </c>
       <c r="F665" t="inlineStr">
         <is>
@@ -34366,13 +34366,13 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>13141</v>
+        <v>13147</v>
       </c>
       <c r="D666" t="n">
         <v>2501</v>
       </c>
       <c r="E666" t="n">
-        <v>54122803</v>
+        <v>54142431</v>
       </c>
       <c r="F666" t="inlineStr">
         <is>
@@ -34417,13 +34417,13 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>4400</v>
+        <v>4402</v>
       </c>
       <c r="D667" t="n">
         <v>867</v>
       </c>
       <c r="E667" t="n">
-        <v>24608323</v>
+        <v>24613930</v>
       </c>
       <c r="F667" t="inlineStr">
         <is>
@@ -34672,13 +34672,13 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>4086</v>
+        <v>4088</v>
       </c>
       <c r="D672" t="n">
         <v>866</v>
       </c>
       <c r="E672" t="n">
-        <v>7674216</v>
+        <v>7675416</v>
       </c>
       <c r="F672" t="inlineStr">
         <is>
@@ -34774,13 +34774,13 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>9453</v>
+        <v>9460</v>
       </c>
       <c r="D674" t="n">
         <v>1924</v>
       </c>
       <c r="E674" t="n">
-        <v>36716184</v>
+        <v>36721915</v>
       </c>
       <c r="F674" t="inlineStr">
         <is>
@@ -34825,13 +34825,13 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>3114</v>
+        <v>3117</v>
       </c>
       <c r="D675" t="n">
         <v>628</v>
       </c>
       <c r="E675" t="n">
-        <v>16595113</v>
+        <v>16600761</v>
       </c>
       <c r="F675" t="inlineStr">
         <is>
@@ -34927,13 +34927,13 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D677" t="n">
         <v>93</v>
       </c>
       <c r="E677" t="n">
-        <v>7724841</v>
+        <v>7730242</v>
       </c>
       <c r="F677" t="inlineStr">
         <is>
@@ -35029,13 +35029,13 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>4481</v>
+        <v>4483</v>
       </c>
       <c r="D679" t="n">
         <v>1082</v>
       </c>
       <c r="E679" t="n">
-        <v>7827050</v>
+        <v>7828265</v>
       </c>
       <c r="F679" t="inlineStr">
         <is>
@@ -35080,13 +35080,13 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>11988</v>
+        <v>11996</v>
       </c>
       <c r="D680" t="n">
         <v>2151</v>
       </c>
       <c r="E680" t="n">
-        <v>39176980</v>
+        <v>39187015</v>
       </c>
       <c r="F680" t="inlineStr">
         <is>
@@ -35131,13 +35131,13 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>27163</v>
+        <v>27173</v>
       </c>
       <c r="D681" t="n">
         <v>5263</v>
       </c>
       <c r="E681" t="n">
-        <v>103700135</v>
+        <v>103708376</v>
       </c>
       <c r="F681" t="inlineStr">
         <is>
@@ -35182,13 +35182,13 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>8646</v>
+        <v>8656</v>
       </c>
       <c r="D682" t="n">
         <v>1725</v>
       </c>
       <c r="E682" t="n">
-        <v>48289824</v>
+        <v>48402449</v>
       </c>
       <c r="F682" t="inlineStr">
         <is>
@@ -35284,13 +35284,13 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>1137</v>
+        <v>1148</v>
       </c>
       <c r="D684" t="n">
         <v>206</v>
       </c>
       <c r="E684" t="n">
-        <v>16544622</v>
+        <v>16593084</v>
       </c>
       <c r="F684" t="inlineStr">
         <is>
@@ -35335,13 +35335,13 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D685" t="n">
         <v>59</v>
       </c>
       <c r="E685" t="n">
-        <v>13848114</v>
+        <v>13884925</v>
       </c>
       <c r="F685" t="inlineStr">
         <is>
@@ -35488,13 +35488,13 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>9292</v>
+        <v>9294</v>
       </c>
       <c r="D688" t="n">
         <v>1951</v>
       </c>
       <c r="E688" t="n">
-        <v>17431973</v>
+        <v>17433814</v>
       </c>
       <c r="F688" t="inlineStr">
         <is>
@@ -35539,13 +35539,13 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>2767</v>
+        <v>2771</v>
       </c>
       <c r="D689" t="n">
         <v>531</v>
       </c>
       <c r="E689" t="n">
-        <v>9074107</v>
+        <v>9080280</v>
       </c>
       <c r="F689" t="inlineStr">
         <is>
@@ -35590,13 +35590,13 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>5974</v>
+        <v>5976</v>
       </c>
       <c r="D690" t="n">
         <v>1284</v>
       </c>
       <c r="E690" t="n">
-        <v>24418769</v>
+        <v>24422648</v>
       </c>
       <c r="F690" t="inlineStr">
         <is>
@@ -35641,13 +35641,13 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D691" t="n">
         <v>438</v>
       </c>
       <c r="E691" t="n">
-        <v>10566114</v>
+        <v>10573165</v>
       </c>
       <c r="F691" t="inlineStr">
         <is>
@@ -35896,13 +35896,13 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>15233</v>
+        <v>15241</v>
       </c>
       <c r="D696" t="n">
         <v>3099</v>
       </c>
       <c r="E696" t="n">
-        <v>43357220</v>
+        <v>43384036</v>
       </c>
       <c r="F696" t="inlineStr">
         <is>
@@ -35947,13 +35947,13 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>38241</v>
+        <v>38268</v>
       </c>
       <c r="D697" t="n">
         <v>7693</v>
       </c>
       <c r="E697" t="n">
-        <v>142038842</v>
+        <v>142098121</v>
       </c>
       <c r="F697" t="inlineStr">
         <is>
@@ -35998,13 +35998,13 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>16374</v>
+        <v>16391</v>
       </c>
       <c r="D698" t="n">
         <v>3090</v>
       </c>
       <c r="E698" t="n">
-        <v>94804483</v>
+        <v>94837618</v>
       </c>
       <c r="F698" t="inlineStr">
         <is>
@@ -36049,13 +36049,13 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>6438</v>
+        <v>6445</v>
       </c>
       <c r="D699" t="n">
         <v>1140</v>
       </c>
       <c r="E699" t="n">
-        <v>50228560</v>
+        <v>50247881</v>
       </c>
       <c r="F699" t="inlineStr">
         <is>
@@ -36100,13 +36100,13 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>3303</v>
+        <v>3308</v>
       </c>
       <c r="D700" t="n">
         <v>516</v>
       </c>
       <c r="E700" t="n">
-        <v>51764402</v>
+        <v>51785403</v>
       </c>
       <c r="F700" t="inlineStr">
         <is>
@@ -36151,13 +36151,13 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="D701" t="n">
         <v>204</v>
       </c>
       <c r="E701" t="n">
-        <v>41218913</v>
+        <v>41249019</v>
       </c>
       <c r="F701" t="inlineStr">
         <is>
@@ -36457,13 +36457,13 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>5234</v>
+        <v>5242</v>
       </c>
       <c r="D707" t="n">
         <v>716</v>
       </c>
       <c r="E707" t="n">
-        <v>22169764</v>
+        <v>22188746</v>
       </c>
       <c r="F707" t="inlineStr">
         <is>
@@ -36508,13 +36508,13 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>9480</v>
+        <v>9490</v>
       </c>
       <c r="D708" t="n">
         <v>1651</v>
       </c>
       <c r="E708" t="n">
-        <v>43375040</v>
+        <v>43419261</v>
       </c>
       <c r="F708" t="inlineStr">
         <is>
@@ -36559,13 +36559,13 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>3777</v>
+        <v>3782</v>
       </c>
       <c r="D709" t="n">
         <v>647</v>
       </c>
       <c r="E709" t="n">
-        <v>26213581</v>
+        <v>26239019</v>
       </c>
       <c r="F709" t="inlineStr">
         <is>
@@ -36610,13 +36610,13 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="D710" t="n">
         <v>194</v>
       </c>
       <c r="E710" t="n">
-        <v>13697088</v>
+        <v>13709831</v>
       </c>
       <c r="F710" t="inlineStr">
         <is>
@@ -36661,13 +36661,13 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D711" t="n">
         <v>100</v>
       </c>
       <c r="E711" t="n">
-        <v>12516971</v>
+        <v>12536557</v>
       </c>
       <c r="F711" t="inlineStr">
         <is>
@@ -36712,13 +36712,13 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D712" t="n">
         <v>25</v>
       </c>
       <c r="E712" t="n">
-        <v>5254987</v>
+        <v>5256515</v>
       </c>
       <c r="F712" t="inlineStr">
         <is>
@@ -36814,13 +36814,13 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>5036</v>
+        <v>5037</v>
       </c>
       <c r="D714" t="n">
         <v>844</v>
       </c>
       <c r="E714" t="n">
-        <v>10522923</v>
+        <v>10523168</v>
       </c>
       <c r="F714" t="inlineStr">
         <is>
@@ -36865,13 +36865,13 @@
         </is>
       </c>
       <c r="C715" t="n">
-        <v>24819</v>
+        <v>24825</v>
       </c>
       <c r="D715" t="n">
         <v>4135</v>
       </c>
       <c r="E715" t="n">
-        <v>87134006</v>
+        <v>87138070</v>
       </c>
       <c r="F715" t="inlineStr">
         <is>
@@ -36916,13 +36916,13 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>48496</v>
+        <v>48519</v>
       </c>
       <c r="D716" t="n">
         <v>9165</v>
       </c>
       <c r="E716" t="n">
-        <v>189652673</v>
+        <v>189699243</v>
       </c>
       <c r="F716" t="inlineStr">
         <is>
@@ -36967,13 +36967,13 @@
         </is>
       </c>
       <c r="C717" t="n">
-        <v>16507</v>
+        <v>16523</v>
       </c>
       <c r="D717" t="n">
         <v>3093</v>
       </c>
       <c r="E717" t="n">
-        <v>95349446</v>
+        <v>95447978</v>
       </c>
       <c r="F717" t="inlineStr">
         <is>
@@ -37018,13 +37018,13 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>5873</v>
+        <v>5876</v>
       </c>
       <c r="D718" t="n">
         <v>1073</v>
       </c>
       <c r="E718" t="n">
-        <v>48687440</v>
+        <v>48699384</v>
       </c>
       <c r="F718" t="inlineStr">
         <is>
@@ -37069,13 +37069,13 @@
         </is>
       </c>
       <c r="C719" t="n">
-        <v>2814</v>
+        <v>2819</v>
       </c>
       <c r="D719" t="n">
         <v>461</v>
       </c>
       <c r="E719" t="n">
-        <v>42466320</v>
+        <v>42543126</v>
       </c>
       <c r="F719" t="inlineStr">
         <is>
@@ -37120,13 +37120,13 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D720" t="n">
         <v>161</v>
       </c>
       <c r="E720" t="n">
-        <v>33739918</v>
+        <v>33752541</v>
       </c>
       <c r="F720" t="inlineStr">
         <is>
@@ -37171,13 +37171,13 @@
         </is>
       </c>
       <c r="C721" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D721" t="n">
         <v>28</v>
       </c>
       <c r="E721" t="n">
-        <v>13628533</v>
+        <v>13794182</v>
       </c>
       <c r="F721" t="inlineStr">
         <is>
@@ -37324,13 +37324,13 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>13443</v>
+        <v>13450</v>
       </c>
       <c r="D724" t="n">
         <v>2915</v>
       </c>
       <c r="E724" t="n">
-        <v>25610363</v>
+        <v>25614384</v>
       </c>
       <c r="F724" t="inlineStr">
         <is>
@@ -37375,13 +37375,13 @@
         </is>
       </c>
       <c r="C725" t="n">
-        <v>3703</v>
+        <v>3704</v>
       </c>
       <c r="D725" t="n">
         <v>615</v>
       </c>
       <c r="E725" t="n">
-        <v>13694794</v>
+        <v>13698884</v>
       </c>
       <c r="F725" t="inlineStr">
         <is>
@@ -37426,13 +37426,13 @@
         </is>
       </c>
       <c r="C726" t="n">
-        <v>5902</v>
+        <v>5904</v>
       </c>
       <c r="D726" t="n">
         <v>1156</v>
       </c>
       <c r="E726" t="n">
-        <v>24500737</v>
+        <v>24503291</v>
       </c>
       <c r="F726" t="inlineStr">
         <is>
@@ -37834,13 +37834,13 @@
         </is>
       </c>
       <c r="C734" t="n">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D734" t="n">
         <v>185</v>
       </c>
       <c r="E734" t="n">
-        <v>5534462</v>
+        <v>5538132</v>
       </c>
       <c r="F734" t="inlineStr">
         <is>
@@ -38089,13 +38089,13 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>11837</v>
+        <v>11840</v>
       </c>
       <c r="D739" t="n">
         <v>1915</v>
       </c>
       <c r="E739" t="n">
-        <v>43694414</v>
+        <v>43696572</v>
       </c>
       <c r="F739" t="inlineStr">
         <is>
@@ -38140,13 +38140,13 @@
         </is>
       </c>
       <c r="C740" t="n">
-        <v>17900</v>
+        <v>17907</v>
       </c>
       <c r="D740" t="n">
         <v>3483</v>
       </c>
       <c r="E740" t="n">
-        <v>70526505</v>
+        <v>70532598</v>
       </c>
       <c r="F740" t="inlineStr">
         <is>
@@ -38191,13 +38191,13 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>6470</v>
+        <v>6473</v>
       </c>
       <c r="D741" t="n">
         <v>1244</v>
       </c>
       <c r="E741" t="n">
-        <v>38339631</v>
+        <v>38346122</v>
       </c>
       <c r="F741" t="inlineStr">
         <is>
@@ -38242,13 +38242,13 @@
         </is>
       </c>
       <c r="C742" t="n">
-        <v>2136</v>
+        <v>2138</v>
       </c>
       <c r="D742" t="n">
         <v>423</v>
       </c>
       <c r="E742" t="n">
-        <v>17554112</v>
+        <v>17559983</v>
       </c>
       <c r="F742" t="inlineStr">
         <is>
@@ -38446,13 +38446,13 @@
         </is>
       </c>
       <c r="C746" t="n">
-        <v>5876</v>
+        <v>5877</v>
       </c>
       <c r="D746" t="n">
         <v>1216</v>
       </c>
       <c r="E746" t="n">
-        <v>11022640</v>
+        <v>11022804</v>
       </c>
       <c r="F746" t="inlineStr">
         <is>
@@ -38497,13 +38497,13 @@
         </is>
       </c>
       <c r="C747" t="n">
-        <v>4224</v>
+        <v>4227</v>
       </c>
       <c r="D747" t="n">
         <v>845</v>
       </c>
       <c r="E747" t="n">
-        <v>12240473</v>
+        <v>12242459</v>
       </c>
       <c r="F747" t="inlineStr">
         <is>
@@ -38548,13 +38548,13 @@
         </is>
       </c>
       <c r="C748" t="n">
-        <v>10217</v>
+        <v>10222</v>
       </c>
       <c r="D748" t="n">
         <v>2208</v>
       </c>
       <c r="E748" t="n">
-        <v>37670546</v>
+        <v>37676432</v>
       </c>
       <c r="F748" t="inlineStr">
         <is>
@@ -38599,13 +38599,13 @@
         </is>
       </c>
       <c r="C749" t="n">
-        <v>3537</v>
+        <v>3541</v>
       </c>
       <c r="D749" t="n">
         <v>744</v>
       </c>
       <c r="E749" t="n">
-        <v>18372818</v>
+        <v>18383255</v>
       </c>
       <c r="F749" t="inlineStr">
         <is>
@@ -38956,13 +38956,13 @@
         </is>
       </c>
       <c r="C756" t="n">
-        <v>6454</v>
+        <v>6457</v>
       </c>
       <c r="D756" t="n">
         <v>1405</v>
       </c>
       <c r="E756" t="n">
-        <v>24737027</v>
+        <v>24739117</v>
       </c>
       <c r="F756" t="inlineStr">
         <is>
@@ -39007,13 +39007,13 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>2265</v>
+        <v>2268</v>
       </c>
       <c r="D757" t="n">
         <v>486</v>
       </c>
       <c r="E757" t="n">
-        <v>11564873</v>
+        <v>11583021</v>
       </c>
       <c r="F757" t="inlineStr">
         <is>
@@ -39058,13 +39058,13 @@
         </is>
       </c>
       <c r="C758" t="n">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D758" t="n">
         <v>159</v>
       </c>
       <c r="E758" t="n">
-        <v>4792230</v>
+        <v>4793744</v>
       </c>
       <c r="F758" t="inlineStr">
         <is>
@@ -39109,13 +39109,13 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D759" t="n">
         <v>59</v>
       </c>
       <c r="E759" t="n">
-        <v>4082285</v>
+        <v>4087343</v>
       </c>
       <c r="F759" t="inlineStr">
         <is>
@@ -39160,13 +39160,13 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D760" t="n">
         <v>19</v>
       </c>
       <c r="E760" t="n">
-        <v>2775796</v>
+        <v>2781866</v>
       </c>
       <c r="F760" t="inlineStr">
         <is>
@@ -39211,13 +39211,13 @@
         </is>
       </c>
       <c r="C761" t="n">
-        <v>2451</v>
+        <v>2453</v>
       </c>
       <c r="D761" t="n">
         <v>591</v>
       </c>
       <c r="E761" t="n">
-        <v>4208062</v>
+        <v>4209926</v>
       </c>
       <c r="F761" t="inlineStr">
         <is>
@@ -39262,13 +39262,13 @@
         </is>
       </c>
       <c r="C762" t="n">
-        <v>13277</v>
+        <v>13281</v>
       </c>
       <c r="D762" t="n">
         <v>2559</v>
       </c>
       <c r="E762" t="n">
-        <v>44171703</v>
+        <v>44175255</v>
       </c>
       <c r="F762" t="inlineStr">
         <is>
@@ -39313,13 +39313,13 @@
         </is>
       </c>
       <c r="C763" t="n">
-        <v>31702</v>
+        <v>31723</v>
       </c>
       <c r="D763" t="n">
         <v>6522</v>
       </c>
       <c r="E763" t="n">
-        <v>136371753</v>
+        <v>136424355</v>
       </c>
       <c r="F763" t="inlineStr">
         <is>
@@ -39364,13 +39364,13 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>14711</v>
+        <v>14723</v>
       </c>
       <c r="D764" t="n">
         <v>2736</v>
       </c>
       <c r="E764" t="n">
-        <v>87983902</v>
+        <v>88008774</v>
       </c>
       <c r="F764" t="inlineStr">
         <is>
@@ -39415,13 +39415,13 @@
         </is>
       </c>
       <c r="C765" t="n">
-        <v>5241</v>
+        <v>5248</v>
       </c>
       <c r="D765" t="n">
         <v>972</v>
       </c>
       <c r="E765" t="n">
-        <v>45771634</v>
+        <v>45813726</v>
       </c>
       <c r="F765" t="inlineStr">
         <is>
@@ -39466,13 +39466,13 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>2597</v>
+        <v>2601</v>
       </c>
       <c r="D766" t="n">
         <v>442</v>
       </c>
       <c r="E766" t="n">
-        <v>40589142</v>
+        <v>40614454</v>
       </c>
       <c r="F766" t="inlineStr">
         <is>
@@ -39517,13 +39517,13 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="D767" t="n">
         <v>169</v>
       </c>
       <c r="E767" t="n">
-        <v>40551459</v>
+        <v>40729385</v>
       </c>
       <c r="F767" t="inlineStr">
         <is>
@@ -39670,13 +39670,13 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>8545</v>
+        <v>8549</v>
       </c>
       <c r="D770" t="n">
         <v>2002</v>
       </c>
       <c r="E770" t="n">
-        <v>16898514</v>
+        <v>16902223</v>
       </c>
       <c r="F770" t="inlineStr">
         <is>
@@ -39721,13 +39721,13 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>5756</v>
+        <v>5757</v>
       </c>
       <c r="D771" t="n">
         <v>1162</v>
       </c>
       <c r="E771" t="n">
-        <v>18233743</v>
+        <v>18234000</v>
       </c>
       <c r="F771" t="inlineStr">
         <is>
@@ -39772,13 +39772,13 @@
         </is>
       </c>
       <c r="C772" t="n">
-        <v>18283</v>
+        <v>18294</v>
       </c>
       <c r="D772" t="n">
         <v>3737</v>
       </c>
       <c r="E772" t="n">
-        <v>77340336</v>
+        <v>77353394</v>
       </c>
       <c r="F772" t="inlineStr">
         <is>
@@ -39823,13 +39823,13 @@
         </is>
       </c>
       <c r="C773" t="n">
-        <v>6923</v>
+        <v>6932</v>
       </c>
       <c r="D773" t="n">
         <v>1464</v>
       </c>
       <c r="E773" t="n">
-        <v>39061116</v>
+        <v>39094099</v>
       </c>
       <c r="F773" t="inlineStr">
         <is>
@@ -39874,13 +39874,13 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>2469</v>
+        <v>2471</v>
       </c>
       <c r="D774" t="n">
         <v>516</v>
       </c>
       <c r="E774" t="n">
-        <v>20500477</v>
+        <v>20506301</v>
       </c>
       <c r="F774" t="inlineStr">
         <is>
@@ -39925,13 +39925,13 @@
         </is>
       </c>
       <c r="C775" t="n">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="D775" t="n">
         <v>224</v>
       </c>
       <c r="E775" t="n">
-        <v>18588440</v>
+        <v>18590406</v>
       </c>
       <c r="F775" t="inlineStr">
         <is>
@@ -39976,13 +39976,13 @@
         </is>
       </c>
       <c r="C776" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D776" t="n">
         <v>86</v>
       </c>
       <c r="E776" t="n">
-        <v>17701176</v>
+        <v>17704744</v>
       </c>
       <c r="F776" t="inlineStr">
         <is>
@@ -40078,13 +40078,13 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>5027</v>
+        <v>5028</v>
       </c>
       <c r="D778" t="n">
         <v>1160</v>
       </c>
       <c r="E778" t="n">
-        <v>10363399</v>
+        <v>10364156</v>
       </c>
       <c r="F778" t="inlineStr">
         <is>
@@ -40129,13 +40129,13 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="D779" t="n">
         <v>453</v>
       </c>
       <c r="E779" t="n">
-        <v>6900545</v>
+        <v>6901836</v>
       </c>
       <c r="F779" t="inlineStr">
         <is>
@@ -40180,13 +40180,13 @@
         </is>
       </c>
       <c r="C780" t="n">
-        <v>6065</v>
+        <v>6067</v>
       </c>
       <c r="D780" t="n">
         <v>1313</v>
       </c>
       <c r="E780" t="n">
-        <v>23386805</v>
+        <v>23390123</v>
       </c>
       <c r="F780" t="inlineStr">
         <is>
@@ -40231,13 +40231,13 @@
         </is>
       </c>
       <c r="C781" t="n">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="D781" t="n">
         <v>505</v>
       </c>
       <c r="E781" t="n">
-        <v>12161643</v>
+        <v>12163230</v>
       </c>
       <c r="F781" t="inlineStr">
         <is>
@@ -40282,13 +40282,13 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="D782" t="n">
         <v>168</v>
       </c>
       <c r="E782" t="n">
-        <v>6126457</v>
+        <v>6134507</v>
       </c>
       <c r="F782" t="inlineStr">
         <is>
@@ -40435,13 +40435,13 @@
         </is>
       </c>
       <c r="C785" t="n">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="D785" t="n">
         <v>408</v>
       </c>
       <c r="E785" t="n">
-        <v>3556638</v>
+        <v>3557113</v>
       </c>
       <c r="F785" t="inlineStr">
         <is>
@@ -40486,13 +40486,13 @@
         </is>
       </c>
       <c r="C786" t="n">
-        <v>3776</v>
+        <v>3778</v>
       </c>
       <c r="D786" t="n">
         <v>737</v>
       </c>
       <c r="E786" t="n">
-        <v>13329735</v>
+        <v>13331438</v>
       </c>
       <c r="F786" t="inlineStr">
         <is>
@@ -40537,13 +40537,13 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>10711</v>
+        <v>10720</v>
       </c>
       <c r="D787" t="n">
         <v>2111</v>
       </c>
       <c r="E787" t="n">
-        <v>44207971</v>
+        <v>44216461</v>
       </c>
       <c r="F787" t="inlineStr">
         <is>
@@ -40588,13 +40588,13 @@
         </is>
       </c>
       <c r="C788" t="n">
-        <v>4163</v>
+        <v>4168</v>
       </c>
       <c r="D788" t="n">
         <v>849</v>
       </c>
       <c r="E788" t="n">
-        <v>23036568</v>
+        <v>23044933</v>
       </c>
       <c r="F788" t="inlineStr">
         <is>
@@ -40843,13 +40843,13 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>8887</v>
+        <v>8891</v>
       </c>
       <c r="D793" t="n">
         <v>1586</v>
       </c>
       <c r="E793" t="n">
-        <v>34396775</v>
+        <v>34399253</v>
       </c>
       <c r="F793" t="inlineStr">
         <is>
@@ -40894,13 +40894,13 @@
         </is>
       </c>
       <c r="C794" t="n">
-        <v>16402</v>
+        <v>16417</v>
       </c>
       <c r="D794" t="n">
         <v>3426</v>
       </c>
       <c r="E794" t="n">
-        <v>71081612</v>
+        <v>71104324</v>
       </c>
       <c r="F794" t="inlineStr">
         <is>
@@ -40945,13 +40945,13 @@
         </is>
       </c>
       <c r="C795" t="n">
-        <v>7412</v>
+        <v>7427</v>
       </c>
       <c r="D795" t="n">
         <v>1525</v>
       </c>
       <c r="E795" t="n">
-        <v>46042099</v>
+        <v>46083161</v>
       </c>
       <c r="F795" t="inlineStr">
         <is>
@@ -40996,13 +40996,13 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="D796" t="n">
         <v>478</v>
       </c>
       <c r="E796" t="n">
-        <v>20678233</v>
+        <v>20682384</v>
       </c>
       <c r="F796" t="inlineStr">
         <is>
@@ -41047,13 +41047,13 @@
         </is>
       </c>
       <c r="C797" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D797" t="n">
         <v>179</v>
       </c>
       <c r="E797" t="n">
-        <v>19667617</v>
+        <v>19673529</v>
       </c>
       <c r="F797" t="inlineStr">
         <is>
@@ -41098,13 +41098,13 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D798" t="n">
         <v>82</v>
       </c>
       <c r="E798" t="n">
-        <v>13897017</v>
+        <v>13905220</v>
       </c>
       <c r="F798" t="inlineStr">
         <is>
@@ -41353,13 +41353,13 @@
         </is>
       </c>
       <c r="C803" t="n">
-        <v>7943</v>
+        <v>7949</v>
       </c>
       <c r="D803" t="n">
         <v>1417</v>
       </c>
       <c r="E803" t="n">
-        <v>33536491</v>
+        <v>33556410</v>
       </c>
       <c r="F803" t="inlineStr">
         <is>
@@ -41404,13 +41404,13 @@
         </is>
       </c>
       <c r="C804" t="n">
-        <v>2698</v>
+        <v>2699</v>
       </c>
       <c r="D804" t="n">
         <v>467</v>
       </c>
       <c r="E804" t="n">
-        <v>16053726</v>
+        <v>16055091</v>
       </c>
       <c r="F804" t="inlineStr">
         <is>
@@ -41455,13 +41455,13 @@
         </is>
       </c>
       <c r="C805" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D805" t="n">
         <v>126</v>
       </c>
       <c r="E805" t="n">
-        <v>4706313</v>
+        <v>4706429</v>
       </c>
       <c r="F805" t="inlineStr">
         <is>
@@ -41710,13 +41710,13 @@
         </is>
       </c>
       <c r="C810" t="n">
-        <v>25052</v>
+        <v>25062</v>
       </c>
       <c r="D810" t="n">
         <v>4087</v>
       </c>
       <c r="E810" t="n">
-        <v>84996988</v>
+        <v>85004228</v>
       </c>
       <c r="F810" t="inlineStr">
         <is>
@@ -41761,13 +41761,13 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>60075</v>
+        <v>60119</v>
       </c>
       <c r="D811" t="n">
         <v>10166</v>
       </c>
       <c r="E811" t="n">
-        <v>243027608</v>
+        <v>243164913</v>
       </c>
       <c r="F811" t="inlineStr">
         <is>
@@ -41812,13 +41812,13 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>21800</v>
+        <v>21826</v>
       </c>
       <c r="D812" t="n">
         <v>3485</v>
       </c>
       <c r="E812" t="n">
-        <v>136626801</v>
+        <v>136727917</v>
       </c>
       <c r="F812" t="inlineStr">
         <is>
@@ -41863,13 +41863,13 @@
         </is>
       </c>
       <c r="C813" t="n">
-        <v>8741</v>
+        <v>8755</v>
       </c>
       <c r="D813" t="n">
         <v>1272</v>
       </c>
       <c r="E813" t="n">
-        <v>83354958</v>
+        <v>83470362</v>
       </c>
       <c r="F813" t="inlineStr">
         <is>
@@ -41914,13 +41914,13 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>4821</v>
+        <v>4835</v>
       </c>
       <c r="D814" t="n">
         <v>700</v>
       </c>
       <c r="E814" t="n">
-        <v>91098934</v>
+        <v>91379872</v>
       </c>
       <c r="F814" t="inlineStr">
         <is>
@@ -41965,13 +41965,13 @@
         </is>
       </c>
       <c r="C815" t="n">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="D815" t="n">
         <v>251</v>
       </c>
       <c r="E815" t="n">
-        <v>80107876</v>
+        <v>80233677</v>
       </c>
       <c r="F815" t="inlineStr">
         <is>
@@ -42016,13 +42016,13 @@
         </is>
       </c>
       <c r="C816" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D816" t="n">
         <v>44</v>
       </c>
       <c r="E816" t="n">
-        <v>20197765</v>
+        <v>20274525</v>
       </c>
       <c r="F816" t="inlineStr">
         <is>
@@ -42220,13 +42220,13 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>18272</v>
+        <v>18280</v>
       </c>
       <c r="D820" t="n">
         <v>3528</v>
       </c>
       <c r="E820" t="n">
-        <v>35676018</v>
+        <v>35681104</v>
       </c>
       <c r="F820" t="inlineStr">
         <is>
@@ -42271,13 +42271,13 @@
         </is>
       </c>
       <c r="C821" t="n">
-        <v>27565</v>
+        <v>27576</v>
       </c>
       <c r="D821" t="n">
         <v>5058</v>
       </c>
       <c r="E821" t="n">
-        <v>86013263</v>
+        <v>86027025</v>
       </c>
       <c r="F821" t="inlineStr">
         <is>
@@ -42322,13 +42322,13 @@
         </is>
       </c>
       <c r="C822" t="n">
-        <v>76272</v>
+        <v>76319</v>
       </c>
       <c r="D822" t="n">
         <v>14067</v>
       </c>
       <c r="E822" t="n">
-        <v>289948565</v>
+        <v>290083887</v>
       </c>
       <c r="F822" t="inlineStr">
         <is>
@@ -42373,13 +42373,13 @@
         </is>
       </c>
       <c r="C823" t="n">
-        <v>28371</v>
+        <v>28395</v>
       </c>
       <c r="D823" t="n">
         <v>5056</v>
       </c>
       <c r="E823" t="n">
-        <v>163431075</v>
+        <v>163605792</v>
       </c>
       <c r="F823" t="inlineStr">
         <is>
@@ -42424,13 +42424,13 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>9974</v>
+        <v>9987</v>
       </c>
       <c r="D824" t="n">
         <v>1679</v>
       </c>
       <c r="E824" t="n">
-        <v>86513929</v>
+        <v>86611850</v>
       </c>
       <c r="F824" t="inlineStr">
         <is>
@@ -42475,13 +42475,13 @@
         </is>
       </c>
       <c r="C825" t="n">
-        <v>5206</v>
+        <v>5218</v>
       </c>
       <c r="D825" t="n">
         <v>802</v>
       </c>
       <c r="E825" t="n">
-        <v>80412549</v>
+        <v>80900316</v>
       </c>
       <c r="F825" t="inlineStr">
         <is>
@@ -42526,13 +42526,13 @@
         </is>
       </c>
       <c r="C826" t="n">
-        <v>1572</v>
+        <v>1578</v>
       </c>
       <c r="D826" t="n">
         <v>282</v>
       </c>
       <c r="E826" t="n">
-        <v>62925481</v>
+        <v>63129567</v>
       </c>
       <c r="F826" t="inlineStr">
         <is>
@@ -42577,13 +42577,13 @@
         </is>
       </c>
       <c r="C827" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D827" t="n">
         <v>48</v>
       </c>
       <c r="E827" t="n">
-        <v>16956392</v>
+        <v>16994755</v>
       </c>
       <c r="F827" t="inlineStr">
         <is>
@@ -42832,13 +42832,13 @@
         </is>
       </c>
       <c r="C832" t="n">
-        <v>20873</v>
+        <v>20881</v>
       </c>
       <c r="D832" t="n">
         <v>4368</v>
       </c>
       <c r="E832" t="n">
-        <v>37712321</v>
+        <v>37721747</v>
       </c>
       <c r="F832" t="inlineStr">
         <is>
@@ -42934,13 +42934,13 @@
         </is>
       </c>
       <c r="C834" t="n">
-        <v>8692</v>
+        <v>8701</v>
       </c>
       <c r="D834" t="n">
         <v>1460</v>
       </c>
       <c r="E834" t="n">
-        <v>41763227</v>
+        <v>41792996</v>
       </c>
       <c r="F834" t="inlineStr">
         <is>
@@ -42985,13 +42985,13 @@
         </is>
       </c>
       <c r="C835" t="n">
-        <v>4036</v>
+        <v>4042</v>
       </c>
       <c r="D835" t="n">
         <v>616</v>
       </c>
       <c r="E835" t="n">
-        <v>27162390</v>
+        <v>27184514</v>
       </c>
       <c r="F835" t="inlineStr">
         <is>
@@ -43036,13 +43036,13 @@
         </is>
       </c>
       <c r="C836" t="n">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D836" t="n">
         <v>248</v>
       </c>
       <c r="E836" t="n">
-        <v>16243572</v>
+        <v>16246180</v>
       </c>
       <c r="F836" t="inlineStr">
         <is>
@@ -43291,13 +43291,13 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>6715</v>
+        <v>6717</v>
       </c>
       <c r="D841" t="n">
         <v>1023</v>
       </c>
       <c r="E841" t="n">
-        <v>15980918</v>
+        <v>15981903</v>
       </c>
       <c r="F841" t="inlineStr">
         <is>
@@ -43342,13 +43342,13 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>24649</v>
+        <v>24653</v>
       </c>
       <c r="D842" t="n">
         <v>4396</v>
       </c>
       <c r="E842" t="n">
-        <v>87329602</v>
+        <v>87333840</v>
       </c>
       <c r="F842" t="inlineStr">
         <is>
@@ -43393,13 +43393,13 @@
         </is>
       </c>
       <c r="C843" t="n">
-        <v>44926</v>
+        <v>44956</v>
       </c>
       <c r="D843" t="n">
         <v>8895</v>
       </c>
       <c r="E843" t="n">
-        <v>179795297</v>
+        <v>179844765</v>
       </c>
       <c r="F843" t="inlineStr">
         <is>
@@ -43444,13 +43444,13 @@
         </is>
       </c>
       <c r="C844" t="n">
-        <v>14817</v>
+        <v>14824</v>
       </c>
       <c r="D844" t="n">
         <v>2876</v>
       </c>
       <c r="E844" t="n">
-        <v>89702966</v>
+        <v>89722841</v>
       </c>
       <c r="F844" t="inlineStr">
         <is>
@@ -43495,13 +43495,13 @@
         </is>
       </c>
       <c r="C845" t="n">
-        <v>4903</v>
+        <v>4907</v>
       </c>
       <c r="D845" t="n">
         <v>902</v>
       </c>
       <c r="E845" t="n">
-        <v>45186650</v>
+        <v>45199027</v>
       </c>
       <c r="F845" t="inlineStr">
         <is>
@@ -43546,13 +43546,13 @@
         </is>
       </c>
       <c r="C846" t="n">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="D846" t="n">
         <v>394</v>
       </c>
       <c r="E846" t="n">
-        <v>36902817</v>
+        <v>36910398</v>
       </c>
       <c r="F846" t="inlineStr">
         <is>
@@ -43597,13 +43597,13 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D847" t="n">
         <v>151</v>
       </c>
       <c r="E847" t="n">
-        <v>36530706</v>
+        <v>36585287</v>
       </c>
       <c r="F847" t="inlineStr">
         <is>
@@ -43801,13 +43801,13 @@
         </is>
       </c>
       <c r="C851" t="n">
-        <v>10623</v>
+        <v>10624</v>
       </c>
       <c r="D851" t="n">
         <v>1897</v>
       </c>
       <c r="E851" t="n">
-        <v>36266709</v>
+        <v>36267809</v>
       </c>
       <c r="F851" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>26497</v>
+        <v>26510</v>
       </c>
       <c r="D852" t="n">
         <v>4900</v>
       </c>
       <c r="E852" t="n">
-        <v>106586957</v>
+        <v>106613792</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43903,13 +43903,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>8201</v>
+        <v>8203</v>
       </c>
       <c r="D853" t="n">
         <v>1566</v>
       </c>
       <c r="E853" t="n">
-        <v>46622385</v>
+        <v>46626317</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>2634</v>
+        <v>2636</v>
       </c>
       <c r="D854" t="n">
         <v>494</v>
       </c>
       <c r="E854" t="n">
-        <v>23258504</v>
+        <v>23272792</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="D855" t="n">
         <v>185</v>
       </c>
       <c r="E855" t="n">
-        <v>18977236</v>
+        <v>18997112</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44056,13 +44056,13 @@
         </is>
       </c>
       <c r="C856" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D856" t="n">
         <v>73</v>
       </c>
       <c r="E856" t="n">
-        <v>14047650</v>
+        <v>14062603</v>
       </c>
       <c r="F856" t="inlineStr">
         <is>
